--- a/Data/SubTel_DistTiming/SubTelXII__summary quantification paper locus segregation and collapse paper final.xlsx
+++ b/Data/SubTel_DistTiming/SubTelXII__summary quantification paper locus segregation and collapse paper final.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B07AB72-0D60-324B-B47D-B27AF7D47516}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="29880" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -246,8 +252,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +314,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -355,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,9 +397,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,6 +449,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,21 +641,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:IY80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ID4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="IV38" sqref="IV38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="205" max="205" width="10.44140625" customWidth="1"/>
-    <col min="255" max="255" width="53.21875" customWidth="1"/>
+    <col min="205" max="205" width="10.5" customWidth="1"/>
+    <col min="255" max="255" width="53.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:202">
       <c r="E2" t="s">
         <v>4</v>
       </c>
@@ -623,7 +666,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:202">
       <c r="E3" t="s">
         <v>5</v>
       </c>
@@ -634,7 +677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:202">
       <c r="E4" t="s">
         <v>7</v>
       </c>
@@ -645,7 +688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:202">
       <c r="E5" t="s">
         <v>8</v>
       </c>
@@ -656,7 +699,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:202">
       <c r="E6" t="s">
         <v>9</v>
       </c>
@@ -667,7 +710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:202">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -681,7 +724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:202">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -701,7 +744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:202">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -733,7 +776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:202">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1341,7 +1384,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:202">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1949,7 +1992,7 @@
         <v>3.1629999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:202">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2557,7 +2600,7 @@
         <v>5.5490000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:202">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3165,7 +3208,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:202">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3773,7 +3816,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:202">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4381,7 +4424,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:202" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:202">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4989,7 +5032,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:259">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -5798,7 +5841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:259">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -6619,7 +6662,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:259">
       <c r="IU20" t="s">
         <v>63</v>
       </c>
@@ -6636,7 +6679,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:259">
       <c r="IU21" t="s">
         <v>66</v>
       </c>
@@ -6653,7 +6696,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:259">
       <c r="IU22" t="s">
         <v>67</v>
       </c>
@@ -6670,7 +6713,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:259">
       <c r="IU23" t="s">
         <v>61</v>
       </c>
@@ -6687,7 +6730,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:259">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -6707,7 +6750,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:259">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -6733,7 +6776,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:259">
       <c r="B26" t="s">
         <v>14</v>
       </c>
@@ -6783,7 +6826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:259">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -7406,7 +7449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:259">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -8014,7 +8057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:259">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -8639,7 +8682,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:259">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -9266,7 +9309,7 @@
         <v>34.328358208955223</v>
       </c>
     </row>
-    <row r="31" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:259">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -9893,7 +9936,7 @@
         <v>4.5801526717557252E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:259">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -10516,7 +10559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:259">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -11143,7 +11186,7 @@
         <v>4.9751243781094532</v>
       </c>
     </row>
-    <row r="34" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:259">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -11319,7 +11362,7 @@
       <c r="FX34" s="5"/>
       <c r="FY34" s="5"/>
     </row>
-    <row r="35" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:259">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -12128,7 +12171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:259">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -12937,7 +12980,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:259">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -13113,7 +13156,7 @@
       <c r="FX37" s="5"/>
       <c r="FY37" s="5"/>
     </row>
-    <row r="38" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:259">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -13292,12 +13335,12 @@
         <v>34.328358208955223</v>
       </c>
     </row>
-    <row r="42" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:259">
       <c r="A42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:259">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -13308,7 +13351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:259">
       <c r="B44" t="s">
         <v>18</v>
       </c>
@@ -13343,7 +13386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:259">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -14104,7 +14147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:259">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -14865,7 +14908,7 @@
         <v>2.8170000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:259">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -15626,7 +15669,7 @@
         <v>5.5030000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:259" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:259">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -16387,7 +16430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:253">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -17148,7 +17191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:253">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -17909,7 +17952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:253">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -18670,7 +18713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:253">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -19683,7 +19726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:253">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -20696,12 +20739,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:253">
       <c r="A59" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:253">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -20712,7 +20755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:253">
       <c r="B61" t="s">
         <v>22</v>
       </c>
@@ -20747,7 +20790,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:253">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -21457,7 +21500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:253">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -22167,7 +22210,7 @@
         <v>2.6520000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:253">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -22877,7 +22920,7 @@
         <v>7.2160000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:236" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:236">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -23587,7 +23630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:236" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:236">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -24297,7 +24340,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:236" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:236">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -25007,7 +25050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:236" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:236">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -25717,7 +25760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:236" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:236">
       <c r="A70" t="s">
         <v>52</v>
       </c>
@@ -26662,7 +26705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:236" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:236">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -27607,12 +27650,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:236" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:236">
       <c r="C76" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:236" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:236">
       <c r="D78" s="2" t="s">
         <v>0</v>
       </c>
@@ -27626,7 +27669,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:236" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:236">
       <c r="C79" t="s">
         <v>57</v>
       </c>
@@ -27643,7 +27686,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:236" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:236">
       <c r="C80" t="s">
         <v>58</v>
       </c>
@@ -27663,6361 +27706,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH254"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M202" sqref="L202:M202"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-    </row>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-    </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-    </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-    </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-    </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-    </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-    </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-    </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-    </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-    </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-    </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-    </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-    </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-    </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-    </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-    </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-    </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-    </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-    </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-    </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-    </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-    </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
-      <c r="AG44" s="4"/>
-      <c r="AH44" s="4"/>
-    </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
-      <c r="AH45" s="4"/>
-    </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-      <c r="AG46" s="4"/>
-      <c r="AH46" s="4"/>
-    </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
-      <c r="AG47" s="4"/>
-      <c r="AH47" s="4"/>
-    </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="4"/>
-      <c r="AF48" s="4"/>
-      <c r="AG48" s="4"/>
-      <c r="AH48" s="4"/>
-    </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
-      <c r="AG49" s="4"/>
-      <c r="AH49" s="4"/>
-    </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-      <c r="AC50" s="4"/>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
-      <c r="AG50" s="4"/>
-      <c r="AH50" s="4"/>
-    </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-      <c r="AG51" s="4"/>
-      <c r="AH51" s="4"/>
-    </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="4"/>
-      <c r="AF52" s="4"/>
-      <c r="AG52" s="4"/>
-      <c r="AH52" s="4"/>
-    </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="4"/>
-      <c r="AH53" s="4"/>
-    </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-      <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
-      <c r="AG54" s="4"/>
-      <c r="AH54" s="4"/>
-    </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-      <c r="AG55" s="4"/>
-      <c r="AH55" s="4"/>
-    </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
-      <c r="AG56" s="4"/>
-      <c r="AH56" s="4"/>
-    </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-      <c r="AG57" s="4"/>
-      <c r="AH57" s="4"/>
-    </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-      <c r="AG58" s="4"/>
-      <c r="AH58" s="4"/>
-    </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
-      <c r="AH59" s="4"/>
-    </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
-      <c r="AG60" s="4"/>
-      <c r="AH60" s="4"/>
-    </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="4"/>
-      <c r="AF61" s="4"/>
-      <c r="AG61" s="4"/>
-      <c r="AH61" s="4"/>
-    </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
-      <c r="AA62" s="4"/>
-      <c r="AC62" s="4"/>
-      <c r="AD62" s="4"/>
-      <c r="AE62" s="4"/>
-      <c r="AF62" s="4"/>
-      <c r="AG62" s="4"/>
-      <c r="AH62" s="4"/>
-    </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
-      <c r="AG63" s="4"/>
-      <c r="AH63" s="4"/>
-    </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
-      <c r="AA64" s="4"/>
-      <c r="AC64" s="4"/>
-      <c r="AD64" s="4"/>
-      <c r="AE64" s="4"/>
-      <c r="AF64" s="4"/>
-      <c r="AG64" s="4"/>
-      <c r="AH64" s="4"/>
-    </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-      <c r="AC65" s="4"/>
-      <c r="AD65" s="4"/>
-      <c r="AE65" s="4"/>
-      <c r="AF65" s="4"/>
-      <c r="AG65" s="4"/>
-      <c r="AH65" s="4"/>
-    </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-      <c r="AC66" s="4"/>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="4"/>
-      <c r="AF66" s="4"/>
-      <c r="AG66" s="4"/>
-      <c r="AH66" s="4"/>
-    </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4"/>
-      <c r="AA67" s="4"/>
-      <c r="AC67" s="4"/>
-      <c r="AD67" s="4"/>
-      <c r="AE67" s="4"/>
-      <c r="AF67" s="4"/>
-      <c r="AG67" s="4"/>
-      <c r="AH67" s="4"/>
-    </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-      <c r="AA68" s="4"/>
-      <c r="AC68" s="4"/>
-      <c r="AD68" s="4"/>
-      <c r="AE68" s="4"/>
-      <c r="AF68" s="4"/>
-      <c r="AG68" s="4"/>
-      <c r="AH68" s="4"/>
-    </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4"/>
-      <c r="AA69" s="4"/>
-      <c r="AC69" s="4"/>
-      <c r="AD69" s="4"/>
-      <c r="AE69" s="4"/>
-      <c r="AF69" s="4"/>
-      <c r="AG69" s="4"/>
-      <c r="AH69" s="4"/>
-    </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
-      <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
-      <c r="AE70" s="4"/>
-      <c r="AF70" s="4"/>
-      <c r="AG70" s="4"/>
-      <c r="AH70" s="4"/>
-    </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-      <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
-      <c r="AE71" s="4"/>
-      <c r="AF71" s="4"/>
-      <c r="AG71" s="4"/>
-      <c r="AH71" s="4"/>
-    </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
-      <c r="AA72" s="4"/>
-      <c r="AC72" s="4"/>
-      <c r="AD72" s="4"/>
-      <c r="AE72" s="4"/>
-      <c r="AF72" s="4"/>
-      <c r="AG72" s="4"/>
-      <c r="AH72" s="4"/>
-    </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-      <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
-      <c r="AG73" s="4"/>
-      <c r="AH73" s="4"/>
-    </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="4"/>
-      <c r="AA74" s="4"/>
-      <c r="AC74" s="4"/>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="4"/>
-      <c r="AF74" s="4"/>
-      <c r="AG74" s="4"/>
-      <c r="AH74" s="4"/>
-    </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-      <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
-      <c r="AE75" s="4"/>
-      <c r="AF75" s="4"/>
-      <c r="AG75" s="4"/>
-      <c r="AH75" s="4"/>
-    </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4"/>
-      <c r="AF76" s="4"/>
-      <c r="AG76" s="4"/>
-      <c r="AH76" s="4"/>
-    </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4"/>
-      <c r="AA77" s="4"/>
-      <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
-      <c r="AE77" s="4"/>
-      <c r="AF77" s="4"/>
-      <c r="AG77" s="4"/>
-      <c r="AH77" s="4"/>
-    </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4"/>
-      <c r="AA78" s="4"/>
-      <c r="AC78" s="4"/>
-      <c r="AD78" s="4"/>
-      <c r="AE78" s="4"/>
-      <c r="AF78" s="4"/>
-      <c r="AG78" s="4"/>
-      <c r="AH78" s="4"/>
-    </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
-      <c r="AA79" s="4"/>
-      <c r="AC79" s="4"/>
-      <c r="AD79" s="4"/>
-      <c r="AE79" s="4"/>
-      <c r="AF79" s="4"/>
-      <c r="AG79" s="4"/>
-      <c r="AH79" s="4"/>
-    </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4"/>
-      <c r="AA80" s="4"/>
-      <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
-      <c r="AE80" s="4"/>
-      <c r="AF80" s="4"/>
-      <c r="AG80" s="4"/>
-      <c r="AH80" s="4"/>
-    </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4"/>
-      <c r="AA81" s="4"/>
-      <c r="AC81" s="4"/>
-      <c r="AD81" s="4"/>
-      <c r="AE81" s="4"/>
-      <c r="AF81" s="4"/>
-      <c r="AG81" s="4"/>
-      <c r="AH81" s="4"/>
-    </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
-      <c r="AA82" s="4"/>
-      <c r="AC82" s="4"/>
-      <c r="AD82" s="4"/>
-      <c r="AE82" s="4"/>
-      <c r="AF82" s="4"/>
-      <c r="AG82" s="4"/>
-      <c r="AH82" s="4"/>
-    </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="4"/>
-      <c r="AA83" s="4"/>
-      <c r="AC83" s="4"/>
-      <c r="AD83" s="4"/>
-      <c r="AE83" s="4"/>
-      <c r="AF83" s="4"/>
-      <c r="AG83" s="4"/>
-      <c r="AH83" s="4"/>
-    </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="U84" s="4"/>
-      <c r="V84" s="4"/>
-      <c r="Y84" s="4"/>
-      <c r="Z84" s="4"/>
-      <c r="AA84" s="4"/>
-      <c r="AC84" s="4"/>
-      <c r="AD84" s="4"/>
-      <c r="AE84" s="4"/>
-      <c r="AF84" s="4"/>
-      <c r="AG84" s="4"/>
-      <c r="AH84" s="4"/>
-    </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4"/>
-      <c r="AA85" s="4"/>
-      <c r="AC85" s="4"/>
-      <c r="AD85" s="4"/>
-      <c r="AE85" s="4"/>
-      <c r="AF85" s="4"/>
-      <c r="AG85" s="4"/>
-      <c r="AH85" s="4"/>
-    </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="4"/>
-      <c r="Y86" s="4"/>
-      <c r="Z86" s="4"/>
-      <c r="AA86" s="4"/>
-      <c r="AC86" s="4"/>
-      <c r="AD86" s="4"/>
-      <c r="AE86" s="4"/>
-      <c r="AF86" s="4"/>
-      <c r="AG86" s="4"/>
-      <c r="AH86" s="4"/>
-    </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="Y87" s="4"/>
-      <c r="Z87" s="4"/>
-      <c r="AA87" s="4"/>
-      <c r="AC87" s="4"/>
-      <c r="AD87" s="4"/>
-      <c r="AE87" s="4"/>
-      <c r="AF87" s="4"/>
-      <c r="AG87" s="4"/>
-      <c r="AH87" s="4"/>
-    </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="Y88" s="4"/>
-      <c r="Z88" s="4"/>
-      <c r="AA88" s="4"/>
-      <c r="AC88" s="4"/>
-      <c r="AD88" s="4"/>
-      <c r="AE88" s="4"/>
-      <c r="AF88" s="4"/>
-      <c r="AG88" s="4"/>
-      <c r="AH88" s="4"/>
-    </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="4"/>
-      <c r="AA89" s="4"/>
-      <c r="AC89" s="4"/>
-      <c r="AD89" s="4"/>
-      <c r="AE89" s="4"/>
-      <c r="AF89" s="4"/>
-      <c r="AG89" s="4"/>
-      <c r="AH89" s="4"/>
-    </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="4"/>
-      <c r="AA90" s="4"/>
-      <c r="AC90" s="4"/>
-      <c r="AD90" s="4"/>
-      <c r="AE90" s="4"/>
-      <c r="AF90" s="4"/>
-      <c r="AG90" s="4"/>
-      <c r="AH90" s="4"/>
-    </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
-      <c r="S91" s="4"/>
-      <c r="U91" s="4"/>
-      <c r="V91" s="4"/>
-      <c r="Y91" s="4"/>
-      <c r="Z91" s="4"/>
-      <c r="AA91" s="4"/>
-      <c r="AC91" s="4"/>
-      <c r="AD91" s="4"/>
-      <c r="AE91" s="4"/>
-      <c r="AF91" s="4"/>
-      <c r="AG91" s="4"/>
-      <c r="AH91" s="4"/>
-    </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="4"/>
-      <c r="AA92" s="4"/>
-      <c r="AC92" s="4"/>
-      <c r="AD92" s="4"/>
-      <c r="AE92" s="4"/>
-      <c r="AF92" s="4"/>
-      <c r="AG92" s="4"/>
-      <c r="AH92" s="4"/>
-    </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
-      <c r="Y93" s="4"/>
-      <c r="Z93" s="4"/>
-      <c r="AA93" s="4"/>
-      <c r="AC93" s="4"/>
-      <c r="AD93" s="4"/>
-      <c r="AE93" s="4"/>
-      <c r="AF93" s="4"/>
-      <c r="AG93" s="4"/>
-      <c r="AH93" s="4"/>
-    </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
-      <c r="U94" s="4"/>
-      <c r="V94" s="4"/>
-      <c r="Y94" s="4"/>
-      <c r="Z94" s="4"/>
-      <c r="AA94" s="4"/>
-      <c r="AC94" s="4"/>
-      <c r="AD94" s="4"/>
-      <c r="AE94" s="4"/>
-      <c r="AF94" s="4"/>
-      <c r="AG94" s="4"/>
-      <c r="AH94" s="4"/>
-    </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-      <c r="U95" s="4"/>
-      <c r="V95" s="4"/>
-      <c r="Y95" s="4"/>
-      <c r="Z95" s="4"/>
-      <c r="AA95" s="4"/>
-      <c r="AC95" s="4"/>
-      <c r="AD95" s="4"/>
-      <c r="AE95" s="4"/>
-      <c r="AF95" s="4"/>
-      <c r="AG95" s="4"/>
-      <c r="AH95" s="4"/>
-    </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-      <c r="U96" s="4"/>
-      <c r="V96" s="4"/>
-      <c r="Y96" s="4"/>
-      <c r="Z96" s="4"/>
-      <c r="AA96" s="4"/>
-      <c r="AC96" s="4"/>
-      <c r="AD96" s="4"/>
-      <c r="AE96" s="4"/>
-      <c r="AF96" s="4"/>
-      <c r="AG96" s="4"/>
-      <c r="AH96" s="4"/>
-    </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-      <c r="S97" s="4"/>
-      <c r="U97" s="4"/>
-      <c r="V97" s="4"/>
-      <c r="Y97" s="4"/>
-      <c r="Z97" s="4"/>
-      <c r="AA97" s="4"/>
-      <c r="AC97" s="4"/>
-      <c r="AD97" s="4"/>
-      <c r="AE97" s="4"/>
-      <c r="AF97" s="4"/>
-      <c r="AG97" s="4"/>
-      <c r="AH97" s="4"/>
-    </row>
-    <row r="98" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
-      <c r="S98" s="4"/>
-      <c r="U98" s="4"/>
-      <c r="V98" s="4"/>
-      <c r="Y98" s="4"/>
-      <c r="Z98" s="4"/>
-      <c r="AA98" s="4"/>
-      <c r="AC98" s="4"/>
-      <c r="AD98" s="4"/>
-      <c r="AE98" s="4"/>
-      <c r="AF98" s="4"/>
-      <c r="AG98" s="4"/>
-      <c r="AH98" s="4"/>
-    </row>
-    <row r="99" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4"/>
-      <c r="U99" s="4"/>
-      <c r="V99" s="4"/>
-      <c r="Y99" s="4"/>
-      <c r="Z99" s="4"/>
-      <c r="AA99" s="4"/>
-      <c r="AC99" s="4"/>
-      <c r="AD99" s="4"/>
-      <c r="AE99" s="4"/>
-      <c r="AF99" s="4"/>
-      <c r="AG99" s="4"/>
-      <c r="AH99" s="4"/>
-    </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-      <c r="S100" s="4"/>
-      <c r="U100" s="4"/>
-      <c r="V100" s="4"/>
-      <c r="Y100" s="4"/>
-      <c r="Z100" s="4"/>
-      <c r="AA100" s="4"/>
-      <c r="AC100" s="4"/>
-      <c r="AD100" s="4"/>
-      <c r="AE100" s="4"/>
-      <c r="AF100" s="4"/>
-      <c r="AG100" s="4"/>
-      <c r="AH100" s="4"/>
-    </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="4"/>
-      <c r="Y101" s="4"/>
-      <c r="Z101" s="4"/>
-      <c r="AA101" s="4"/>
-      <c r="AC101" s="4"/>
-      <c r="AD101" s="4"/>
-      <c r="AE101" s="4"/>
-      <c r="AF101" s="4"/>
-      <c r="AG101" s="4"/>
-      <c r="AH101" s="4"/>
-    </row>
-    <row r="102" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
-      <c r="Y102" s="4"/>
-      <c r="Z102" s="4"/>
-      <c r="AA102" s="4"/>
-      <c r="AC102" s="4"/>
-      <c r="AD102" s="4"/>
-      <c r="AE102" s="4"/>
-      <c r="AF102" s="4"/>
-      <c r="AG102" s="4"/>
-      <c r="AH102" s="4"/>
-    </row>
-    <row r="103" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
-      <c r="S103" s="4"/>
-      <c r="U103" s="4"/>
-      <c r="V103" s="4"/>
-      <c r="Y103" s="4"/>
-      <c r="Z103" s="4"/>
-      <c r="AA103" s="4"/>
-      <c r="AC103" s="4"/>
-      <c r="AD103" s="4"/>
-      <c r="AE103" s="4"/>
-      <c r="AF103" s="4"/>
-      <c r="AG103" s="4"/>
-      <c r="AH103" s="4"/>
-    </row>
-    <row r="104" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
-      <c r="U104" s="4"/>
-      <c r="V104" s="4"/>
-      <c r="Y104" s="4"/>
-      <c r="Z104" s="4"/>
-      <c r="AA104" s="4"/>
-      <c r="AC104" s="4"/>
-      <c r="AD104" s="4"/>
-      <c r="AE104" s="4"/>
-      <c r="AF104" s="4"/>
-      <c r="AG104" s="4"/>
-      <c r="AH104" s="4"/>
-    </row>
-    <row r="105" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-      <c r="S105" s="4"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="4"/>
-      <c r="Y105" s="4"/>
-      <c r="Z105" s="4"/>
-      <c r="AA105" s="4"/>
-      <c r="AC105" s="4"/>
-      <c r="AD105" s="4"/>
-      <c r="AE105" s="4"/>
-      <c r="AF105" s="4"/>
-      <c r="AG105" s="4"/>
-      <c r="AH105" s="4"/>
-    </row>
-    <row r="106" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4"/>
-      <c r="S106" s="4"/>
-      <c r="U106" s="4"/>
-      <c r="V106" s="4"/>
-      <c r="Y106" s="4"/>
-      <c r="Z106" s="4"/>
-      <c r="AA106" s="4"/>
-      <c r="AC106" s="4"/>
-      <c r="AD106" s="4"/>
-      <c r="AE106" s="4"/>
-      <c r="AF106" s="4"/>
-      <c r="AG106" s="4"/>
-      <c r="AH106" s="4"/>
-    </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="P107" s="4"/>
-      <c r="Q107" s="4"/>
-      <c r="R107" s="4"/>
-      <c r="S107" s="4"/>
-      <c r="U107" s="4"/>
-      <c r="V107" s="4"/>
-      <c r="Y107" s="4"/>
-      <c r="Z107" s="4"/>
-      <c r="AA107" s="4"/>
-      <c r="AC107" s="4"/>
-      <c r="AD107" s="4"/>
-      <c r="AE107" s="4"/>
-      <c r="AF107" s="4"/>
-      <c r="AG107" s="4"/>
-      <c r="AH107" s="4"/>
-    </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4"/>
-      <c r="S108" s="4"/>
-      <c r="U108" s="4"/>
-      <c r="V108" s="4"/>
-      <c r="Y108" s="4"/>
-      <c r="Z108" s="4"/>
-      <c r="AA108" s="4"/>
-      <c r="AC108" s="4"/>
-      <c r="AD108" s="4"/>
-      <c r="AE108" s="4"/>
-      <c r="AF108" s="4"/>
-      <c r="AG108" s="4"/>
-      <c r="AH108" s="4"/>
-    </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="P109" s="4"/>
-      <c r="Q109" s="4"/>
-      <c r="R109" s="4"/>
-      <c r="S109" s="4"/>
-      <c r="U109" s="4"/>
-      <c r="V109" s="4"/>
-      <c r="Y109" s="4"/>
-      <c r="Z109" s="4"/>
-      <c r="AA109" s="4"/>
-      <c r="AC109" s="4"/>
-      <c r="AD109" s="4"/>
-      <c r="AE109" s="4"/>
-      <c r="AF109" s="4"/>
-      <c r="AG109" s="4"/>
-      <c r="AH109" s="4"/>
-    </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="4"/>
-      <c r="S110" s="4"/>
-      <c r="U110" s="4"/>
-      <c r="V110" s="4"/>
-      <c r="Y110" s="4"/>
-      <c r="Z110" s="4"/>
-      <c r="AA110" s="4"/>
-      <c r="AC110" s="4"/>
-      <c r="AD110" s="4"/>
-      <c r="AE110" s="4"/>
-      <c r="AF110" s="4"/>
-      <c r="AG110" s="4"/>
-      <c r="AH110" s="4"/>
-    </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="P111" s="4"/>
-      <c r="Q111" s="4"/>
-      <c r="R111" s="4"/>
-      <c r="S111" s="4"/>
-      <c r="U111" s="4"/>
-      <c r="V111" s="4"/>
-      <c r="Y111" s="4"/>
-      <c r="Z111" s="4"/>
-      <c r="AA111" s="4"/>
-      <c r="AC111" s="4"/>
-      <c r="AD111" s="4"/>
-      <c r="AE111" s="4"/>
-      <c r="AF111" s="4"/>
-      <c r="AG111" s="4"/>
-      <c r="AH111" s="4"/>
-    </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="4"/>
-      <c r="S112" s="4"/>
-      <c r="U112" s="4"/>
-      <c r="V112" s="4"/>
-      <c r="Y112" s="4"/>
-      <c r="Z112" s="4"/>
-      <c r="AA112" s="4"/>
-      <c r="AC112" s="4"/>
-      <c r="AD112" s="4"/>
-      <c r="AE112" s="4"/>
-      <c r="AF112" s="4"/>
-      <c r="AG112" s="4"/>
-      <c r="AH112" s="4"/>
-    </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
-      <c r="R113" s="4"/>
-      <c r="S113" s="4"/>
-      <c r="U113" s="4"/>
-      <c r="V113" s="4"/>
-      <c r="Y113" s="4"/>
-      <c r="Z113" s="4"/>
-      <c r="AA113" s="4"/>
-      <c r="AC113" s="4"/>
-      <c r="AD113" s="4"/>
-      <c r="AE113" s="4"/>
-      <c r="AF113" s="4"/>
-      <c r="AG113" s="4"/>
-      <c r="AH113" s="4"/>
-    </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="P114" s="4"/>
-      <c r="Q114" s="4"/>
-      <c r="R114" s="4"/>
-      <c r="S114" s="4"/>
-      <c r="U114" s="4"/>
-      <c r="V114" s="4"/>
-      <c r="Y114" s="4"/>
-      <c r="Z114" s="4"/>
-      <c r="AA114" s="4"/>
-      <c r="AC114" s="4"/>
-      <c r="AD114" s="4"/>
-      <c r="AE114" s="4"/>
-      <c r="AF114" s="4"/>
-      <c r="AG114" s="4"/>
-      <c r="AH114" s="4"/>
-    </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="P115" s="4"/>
-      <c r="Q115" s="4"/>
-      <c r="R115" s="4"/>
-      <c r="S115" s="4"/>
-      <c r="U115" s="4"/>
-      <c r="V115" s="4"/>
-      <c r="Y115" s="4"/>
-      <c r="Z115" s="4"/>
-      <c r="AA115" s="4"/>
-      <c r="AC115" s="4"/>
-      <c r="AD115" s="4"/>
-      <c r="AE115" s="4"/>
-      <c r="AF115" s="4"/>
-      <c r="AG115" s="4"/>
-      <c r="AH115" s="4"/>
-    </row>
-    <row r="116" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="4"/>
-      <c r="S116" s="4"/>
-      <c r="U116" s="4"/>
-      <c r="V116" s="4"/>
-      <c r="Y116" s="4"/>
-      <c r="Z116" s="4"/>
-      <c r="AA116" s="4"/>
-      <c r="AC116" s="4"/>
-      <c r="AD116" s="4"/>
-      <c r="AE116" s="4"/>
-      <c r="AF116" s="4"/>
-      <c r="AG116" s="4"/>
-      <c r="AH116" s="4"/>
-    </row>
-    <row r="117" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
-      <c r="R117" s="4"/>
-      <c r="S117" s="4"/>
-      <c r="U117" s="4"/>
-      <c r="V117" s="4"/>
-      <c r="Y117" s="4"/>
-      <c r="Z117" s="4"/>
-      <c r="AA117" s="4"/>
-      <c r="AC117" s="4"/>
-      <c r="AD117" s="4"/>
-      <c r="AE117" s="4"/>
-      <c r="AF117" s="4"/>
-      <c r="AG117" s="4"/>
-      <c r="AH117" s="4"/>
-    </row>
-    <row r="118" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4"/>
-      <c r="S118" s="4"/>
-      <c r="U118" s="4"/>
-      <c r="V118" s="4"/>
-      <c r="Y118" s="4"/>
-      <c r="Z118" s="4"/>
-      <c r="AA118" s="4"/>
-      <c r="AC118" s="4"/>
-      <c r="AD118" s="4"/>
-      <c r="AE118" s="4"/>
-      <c r="AF118" s="4"/>
-      <c r="AG118" s="4"/>
-      <c r="AH118" s="4"/>
-    </row>
-    <row r="119" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="P119" s="4"/>
-      <c r="Q119" s="4"/>
-      <c r="R119" s="4"/>
-      <c r="S119" s="4"/>
-      <c r="U119" s="4"/>
-      <c r="V119" s="4"/>
-      <c r="Y119" s="4"/>
-      <c r="Z119" s="4"/>
-      <c r="AA119" s="4"/>
-      <c r="AC119" s="4"/>
-      <c r="AD119" s="4"/>
-      <c r="AE119" s="4"/>
-      <c r="AF119" s="4"/>
-      <c r="AG119" s="4"/>
-      <c r="AH119" s="4"/>
-    </row>
-    <row r="120" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="4"/>
-      <c r="S120" s="4"/>
-      <c r="U120" s="4"/>
-      <c r="V120" s="4"/>
-      <c r="Y120" s="4"/>
-      <c r="Z120" s="4"/>
-      <c r="AA120" s="4"/>
-      <c r="AC120" s="4"/>
-      <c r="AD120" s="4"/>
-      <c r="AE120" s="4"/>
-      <c r="AF120" s="4"/>
-      <c r="AG120" s="4"/>
-      <c r="AH120" s="4"/>
-    </row>
-    <row r="121" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="P121" s="4"/>
-      <c r="Q121" s="4"/>
-      <c r="R121" s="4"/>
-      <c r="S121" s="4"/>
-      <c r="U121" s="4"/>
-      <c r="V121" s="4"/>
-      <c r="Y121" s="4"/>
-      <c r="Z121" s="4"/>
-      <c r="AA121" s="4"/>
-      <c r="AC121" s="4"/>
-      <c r="AD121" s="4"/>
-      <c r="AE121" s="4"/>
-      <c r="AF121" s="4"/>
-      <c r="AG121" s="4"/>
-      <c r="AH121" s="4"/>
-    </row>
-    <row r="122" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-      <c r="R122" s="4"/>
-      <c r="S122" s="4"/>
-      <c r="U122" s="4"/>
-      <c r="V122" s="4"/>
-      <c r="Y122" s="4"/>
-      <c r="Z122" s="4"/>
-      <c r="AA122" s="4"/>
-      <c r="AC122" s="4"/>
-      <c r="AD122" s="4"/>
-      <c r="AE122" s="4"/>
-      <c r="AF122" s="4"/>
-      <c r="AG122" s="4"/>
-      <c r="AH122" s="4"/>
-    </row>
-    <row r="123" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-      <c r="R123" s="4"/>
-      <c r="S123" s="4"/>
-      <c r="U123" s="4"/>
-      <c r="V123" s="4"/>
-      <c r="Y123" s="4"/>
-      <c r="Z123" s="4"/>
-      <c r="AA123" s="4"/>
-      <c r="AC123" s="4"/>
-      <c r="AD123" s="4"/>
-      <c r="AE123" s="4"/>
-      <c r="AF123" s="4"/>
-      <c r="AG123" s="4"/>
-      <c r="AH123" s="4"/>
-    </row>
-    <row r="124" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
-      <c r="R124" s="4"/>
-      <c r="S124" s="4"/>
-      <c r="U124" s="4"/>
-      <c r="V124" s="4"/>
-      <c r="Y124" s="4"/>
-      <c r="Z124" s="4"/>
-      <c r="AA124" s="4"/>
-      <c r="AC124" s="4"/>
-      <c r="AD124" s="4"/>
-      <c r="AE124" s="4"/>
-      <c r="AF124" s="4"/>
-      <c r="AG124" s="4"/>
-      <c r="AH124" s="4"/>
-    </row>
-    <row r="125" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
-      <c r="Y125" s="4"/>
-      <c r="Z125" s="4"/>
-      <c r="AA125" s="4"/>
-      <c r="AC125" s="4"/>
-      <c r="AD125" s="4"/>
-      <c r="AE125" s="4"/>
-      <c r="AF125" s="4"/>
-      <c r="AG125" s="4"/>
-      <c r="AH125" s="4"/>
-    </row>
-    <row r="126" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
-      <c r="R126" s="4"/>
-      <c r="S126" s="4"/>
-      <c r="U126" s="4"/>
-      <c r="V126" s="4"/>
-      <c r="Y126" s="4"/>
-      <c r="Z126" s="4"/>
-      <c r="AA126" s="4"/>
-      <c r="AC126" s="4"/>
-      <c r="AD126" s="4"/>
-      <c r="AE126" s="4"/>
-      <c r="AF126" s="4"/>
-      <c r="AG126" s="4"/>
-      <c r="AH126" s="4"/>
-    </row>
-    <row r="127" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="P127" s="4"/>
-      <c r="Q127" s="4"/>
-      <c r="R127" s="4"/>
-      <c r="S127" s="4"/>
-      <c r="U127" s="4"/>
-      <c r="V127" s="4"/>
-      <c r="Y127" s="4"/>
-      <c r="Z127" s="4"/>
-      <c r="AA127" s="4"/>
-      <c r="AC127" s="4"/>
-      <c r="AD127" s="4"/>
-      <c r="AE127" s="4"/>
-      <c r="AF127" s="4"/>
-      <c r="AG127" s="4"/>
-      <c r="AH127" s="4"/>
-    </row>
-    <row r="128" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="P128" s="4"/>
-      <c r="Q128" s="4"/>
-      <c r="R128" s="4"/>
-      <c r="S128" s="4"/>
-      <c r="U128" s="4"/>
-      <c r="V128" s="4"/>
-      <c r="Y128" s="4"/>
-      <c r="Z128" s="4"/>
-      <c r="AA128" s="4"/>
-      <c r="AC128" s="4"/>
-      <c r="AD128" s="4"/>
-      <c r="AE128" s="4"/>
-      <c r="AF128" s="4"/>
-      <c r="AG128" s="4"/>
-      <c r="AH128" s="4"/>
-    </row>
-    <row r="129" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-      <c r="R129" s="4"/>
-      <c r="S129" s="4"/>
-      <c r="U129" s="4"/>
-      <c r="V129" s="4"/>
-      <c r="Y129" s="4"/>
-      <c r="Z129" s="4"/>
-      <c r="AA129" s="4"/>
-      <c r="AC129" s="4"/>
-      <c r="AD129" s="4"/>
-      <c r="AE129" s="4"/>
-      <c r="AF129" s="4"/>
-      <c r="AG129" s="4"/>
-      <c r="AH129" s="4"/>
-    </row>
-    <row r="130" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-      <c r="R130" s="4"/>
-      <c r="S130" s="4"/>
-      <c r="U130" s="4"/>
-      <c r="V130" s="4"/>
-      <c r="Y130" s="4"/>
-      <c r="Z130" s="4"/>
-      <c r="AA130" s="4"/>
-      <c r="AC130" s="4"/>
-      <c r="AD130" s="4"/>
-      <c r="AE130" s="4"/>
-      <c r="AF130" s="4"/>
-      <c r="AG130" s="4"/>
-      <c r="AH130" s="4"/>
-    </row>
-    <row r="131" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="P131" s="4"/>
-      <c r="Q131" s="4"/>
-      <c r="R131" s="4"/>
-      <c r="S131" s="4"/>
-      <c r="U131" s="4"/>
-      <c r="V131" s="4"/>
-      <c r="Y131" s="4"/>
-      <c r="Z131" s="4"/>
-      <c r="AA131" s="4"/>
-      <c r="AC131" s="4"/>
-      <c r="AD131" s="4"/>
-      <c r="AE131" s="4"/>
-      <c r="AF131" s="4"/>
-      <c r="AG131" s="4"/>
-      <c r="AH131" s="4"/>
-    </row>
-    <row r="132" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
-      <c r="S132" s="4"/>
-      <c r="U132" s="4"/>
-      <c r="V132" s="4"/>
-      <c r="Y132" s="4"/>
-      <c r="Z132" s="4"/>
-      <c r="AA132" s="4"/>
-      <c r="AC132" s="4"/>
-      <c r="AD132" s="4"/>
-      <c r="AE132" s="4"/>
-      <c r="AF132" s="4"/>
-      <c r="AG132" s="4"/>
-      <c r="AH132" s="4"/>
-    </row>
-    <row r="133" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="4"/>
-      <c r="S133" s="4"/>
-      <c r="U133" s="4"/>
-      <c r="V133" s="4"/>
-      <c r="Y133" s="4"/>
-      <c r="Z133" s="4"/>
-      <c r="AA133" s="4"/>
-      <c r="AC133" s="4"/>
-      <c r="AD133" s="4"/>
-      <c r="AE133" s="4"/>
-      <c r="AF133" s="4"/>
-      <c r="AG133" s="4"/>
-      <c r="AH133" s="4"/>
-    </row>
-    <row r="134" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
-      <c r="R134" s="4"/>
-      <c r="S134" s="4"/>
-      <c r="U134" s="4"/>
-      <c r="V134" s="4"/>
-      <c r="Y134" s="4"/>
-      <c r="Z134" s="4"/>
-      <c r="AA134" s="4"/>
-      <c r="AC134" s="4"/>
-      <c r="AD134" s="4"/>
-      <c r="AE134" s="4"/>
-      <c r="AF134" s="4"/>
-      <c r="AG134" s="4"/>
-      <c r="AH134" s="4"/>
-    </row>
-    <row r="135" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="Y135" s="4"/>
-      <c r="Z135" s="4"/>
-      <c r="AA135" s="4"/>
-      <c r="AC135" s="4"/>
-      <c r="AD135" s="4"/>
-      <c r="AE135" s="4"/>
-      <c r="AF135" s="4"/>
-      <c r="AG135" s="4"/>
-      <c r="AH135" s="4"/>
-    </row>
-    <row r="136" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-      <c r="R136" s="4"/>
-      <c r="S136" s="4"/>
-      <c r="U136" s="4"/>
-      <c r="V136" s="4"/>
-      <c r="Y136" s="4"/>
-      <c r="Z136" s="4"/>
-      <c r="AA136" s="4"/>
-      <c r="AC136" s="4"/>
-      <c r="AD136" s="4"/>
-      <c r="AE136" s="4"/>
-      <c r="AF136" s="4"/>
-      <c r="AG136" s="4"/>
-      <c r="AH136" s="4"/>
-    </row>
-    <row r="137" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="4"/>
-      <c r="S137" s="4"/>
-      <c r="U137" s="4"/>
-      <c r="V137" s="4"/>
-      <c r="Y137" s="4"/>
-      <c r="Z137" s="4"/>
-      <c r="AA137" s="4"/>
-      <c r="AC137" s="4"/>
-      <c r="AD137" s="4"/>
-      <c r="AE137" s="4"/>
-      <c r="AF137" s="4"/>
-      <c r="AG137" s="4"/>
-      <c r="AH137" s="4"/>
-    </row>
-    <row r="138" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="4"/>
-      <c r="R138" s="4"/>
-      <c r="S138" s="4"/>
-      <c r="U138" s="4"/>
-      <c r="V138" s="4"/>
-      <c r="Y138" s="4"/>
-      <c r="Z138" s="4"/>
-      <c r="AA138" s="4"/>
-      <c r="AC138" s="4"/>
-      <c r="AD138" s="4"/>
-      <c r="AE138" s="4"/>
-      <c r="AF138" s="4"/>
-      <c r="AG138" s="4"/>
-      <c r="AH138" s="4"/>
-    </row>
-    <row r="139" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="4"/>
-      <c r="U139" s="4"/>
-      <c r="V139" s="4"/>
-      <c r="Y139" s="4"/>
-      <c r="Z139" s="4"/>
-      <c r="AA139" s="4"/>
-      <c r="AC139" s="4"/>
-      <c r="AD139" s="4"/>
-      <c r="AE139" s="4"/>
-      <c r="AF139" s="4"/>
-      <c r="AG139" s="4"/>
-      <c r="AH139" s="4"/>
-    </row>
-    <row r="140" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-      <c r="R140" s="4"/>
-      <c r="S140" s="4"/>
-      <c r="U140" s="4"/>
-      <c r="V140" s="4"/>
-      <c r="Y140" s="4"/>
-      <c r="Z140" s="4"/>
-      <c r="AA140" s="4"/>
-      <c r="AC140" s="4"/>
-      <c r="AD140" s="4"/>
-      <c r="AE140" s="4"/>
-      <c r="AF140" s="4"/>
-      <c r="AG140" s="4"/>
-      <c r="AH140" s="4"/>
-    </row>
-    <row r="141" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-      <c r="R141" s="4"/>
-      <c r="S141" s="4"/>
-      <c r="U141" s="4"/>
-      <c r="V141" s="4"/>
-      <c r="Y141" s="4"/>
-      <c r="Z141" s="4"/>
-      <c r="AA141" s="4"/>
-      <c r="AC141" s="4"/>
-      <c r="AD141" s="4"/>
-      <c r="AE141" s="4"/>
-      <c r="AF141" s="4"/>
-      <c r="AG141" s="4"/>
-      <c r="AH141" s="4"/>
-    </row>
-    <row r="142" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
-      <c r="R142" s="4"/>
-      <c r="S142" s="4"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="4"/>
-      <c r="Y142" s="4"/>
-      <c r="Z142" s="4"/>
-      <c r="AA142" s="4"/>
-      <c r="AC142" s="4"/>
-      <c r="AD142" s="4"/>
-      <c r="AE142" s="4"/>
-      <c r="AF142" s="4"/>
-      <c r="AG142" s="4"/>
-      <c r="AH142" s="4"/>
-    </row>
-    <row r="143" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
-      <c r="R143" s="4"/>
-      <c r="S143" s="4"/>
-      <c r="U143" s="4"/>
-      <c r="V143" s="4"/>
-      <c r="Y143" s="4"/>
-      <c r="Z143" s="4"/>
-      <c r="AA143" s="4"/>
-      <c r="AC143" s="4"/>
-      <c r="AD143" s="4"/>
-      <c r="AE143" s="4"/>
-      <c r="AF143" s="4"/>
-      <c r="AG143" s="4"/>
-      <c r="AH143" s="4"/>
-    </row>
-    <row r="144" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-      <c r="R144" s="4"/>
-      <c r="S144" s="4"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="4"/>
-      <c r="Y144" s="4"/>
-      <c r="Z144" s="4"/>
-      <c r="AA144" s="4"/>
-      <c r="AC144" s="4"/>
-      <c r="AD144" s="4"/>
-      <c r="AE144" s="4"/>
-      <c r="AF144" s="4"/>
-      <c r="AG144" s="4"/>
-      <c r="AH144" s="4"/>
-    </row>
-    <row r="145" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="P145" s="4"/>
-      <c r="Q145" s="4"/>
-      <c r="R145" s="4"/>
-      <c r="S145" s="4"/>
-      <c r="U145" s="4"/>
-      <c r="V145" s="4"/>
-      <c r="Y145" s="4"/>
-      <c r="Z145" s="4"/>
-      <c r="AA145" s="4"/>
-      <c r="AC145" s="4"/>
-      <c r="AD145" s="4"/>
-      <c r="AE145" s="4"/>
-      <c r="AF145" s="4"/>
-      <c r="AG145" s="4"/>
-      <c r="AH145" s="4"/>
-    </row>
-    <row r="146" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-      <c r="R146" s="4"/>
-      <c r="S146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="Y146" s="4"/>
-      <c r="Z146" s="4"/>
-      <c r="AA146" s="4"/>
-      <c r="AC146" s="4"/>
-      <c r="AD146" s="4"/>
-      <c r="AE146" s="4"/>
-      <c r="AF146" s="4"/>
-      <c r="AG146" s="4"/>
-      <c r="AH146" s="4"/>
-    </row>
-    <row r="147" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="P147" s="4"/>
-      <c r="Q147" s="4"/>
-      <c r="R147" s="4"/>
-      <c r="S147" s="4"/>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
-      <c r="Y147" s="4"/>
-      <c r="Z147" s="4"/>
-      <c r="AA147" s="4"/>
-      <c r="AC147" s="4"/>
-      <c r="AD147" s="4"/>
-      <c r="AE147" s="4"/>
-      <c r="AF147" s="4"/>
-      <c r="AG147" s="4"/>
-      <c r="AH147" s="4"/>
-    </row>
-    <row r="148" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="P148" s="4"/>
-      <c r="Q148" s="4"/>
-      <c r="R148" s="4"/>
-      <c r="S148" s="4"/>
-      <c r="U148" s="4"/>
-      <c r="V148" s="4"/>
-      <c r="Y148" s="4"/>
-      <c r="Z148" s="4"/>
-      <c r="AA148" s="4"/>
-      <c r="AC148" s="4"/>
-      <c r="AD148" s="4"/>
-      <c r="AE148" s="4"/>
-      <c r="AF148" s="4"/>
-      <c r="AG148" s="4"/>
-      <c r="AH148" s="4"/>
-    </row>
-    <row r="149" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="P149" s="4"/>
-      <c r="Q149" s="4"/>
-      <c r="R149" s="4"/>
-      <c r="S149" s="4"/>
-      <c r="U149" s="4"/>
-      <c r="V149" s="4"/>
-      <c r="Y149" s="4"/>
-      <c r="Z149" s="4"/>
-      <c r="AA149" s="4"/>
-      <c r="AC149" s="4"/>
-      <c r="AD149" s="4"/>
-      <c r="AE149" s="4"/>
-      <c r="AF149" s="4"/>
-      <c r="AG149" s="4"/>
-      <c r="AH149" s="4"/>
-    </row>
-    <row r="150" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="P150" s="4"/>
-      <c r="Q150" s="4"/>
-      <c r="R150" s="4"/>
-      <c r="S150" s="4"/>
-      <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
-      <c r="Y150" s="4"/>
-      <c r="Z150" s="4"/>
-      <c r="AA150" s="4"/>
-      <c r="AC150" s="4"/>
-      <c r="AD150" s="4"/>
-      <c r="AE150" s="4"/>
-      <c r="AF150" s="4"/>
-      <c r="AG150" s="4"/>
-      <c r="AH150" s="4"/>
-    </row>
-    <row r="151" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="P151" s="4"/>
-      <c r="Q151" s="4"/>
-      <c r="R151" s="4"/>
-      <c r="S151" s="4"/>
-      <c r="U151" s="4"/>
-      <c r="V151" s="4"/>
-      <c r="Y151" s="4"/>
-      <c r="Z151" s="4"/>
-      <c r="AA151" s="4"/>
-      <c r="AC151" s="4"/>
-      <c r="AD151" s="4"/>
-      <c r="AE151" s="4"/>
-      <c r="AF151" s="4"/>
-      <c r="AG151" s="4"/>
-      <c r="AH151" s="4"/>
-    </row>
-    <row r="152" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="P152" s="4"/>
-      <c r="Q152" s="4"/>
-      <c r="R152" s="4"/>
-      <c r="S152" s="4"/>
-      <c r="U152" s="4"/>
-      <c r="V152" s="4"/>
-      <c r="Y152" s="4"/>
-      <c r="Z152" s="4"/>
-      <c r="AA152" s="4"/>
-      <c r="AC152" s="4"/>
-      <c r="AD152" s="4"/>
-      <c r="AE152" s="4"/>
-      <c r="AF152" s="4"/>
-      <c r="AG152" s="4"/>
-      <c r="AH152" s="4"/>
-    </row>
-    <row r="153" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="P153" s="4"/>
-      <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
-      <c r="S153" s="4"/>
-      <c r="U153" s="4"/>
-      <c r="V153" s="4"/>
-      <c r="Y153" s="4"/>
-      <c r="Z153" s="4"/>
-      <c r="AA153" s="4"/>
-      <c r="AC153" s="4"/>
-      <c r="AD153" s="4"/>
-      <c r="AE153" s="4"/>
-      <c r="AF153" s="4"/>
-      <c r="AG153" s="4"/>
-      <c r="AH153" s="4"/>
-    </row>
-    <row r="154" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="P154" s="4"/>
-      <c r="Q154" s="4"/>
-      <c r="R154" s="4"/>
-      <c r="S154" s="4"/>
-      <c r="U154" s="4"/>
-      <c r="V154" s="4"/>
-      <c r="Y154" s="4"/>
-      <c r="Z154" s="4"/>
-      <c r="AA154" s="4"/>
-      <c r="AC154" s="4"/>
-      <c r="AD154" s="4"/>
-      <c r="AE154" s="4"/>
-      <c r="AF154" s="4"/>
-      <c r="AG154" s="4"/>
-      <c r="AH154" s="4"/>
-    </row>
-    <row r="155" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="P155" s="4"/>
-      <c r="Q155" s="4"/>
-      <c r="R155" s="4"/>
-      <c r="S155" s="4"/>
-      <c r="U155" s="4"/>
-      <c r="V155" s="4"/>
-      <c r="Y155" s="4"/>
-      <c r="Z155" s="4"/>
-      <c r="AA155" s="4"/>
-      <c r="AC155" s="4"/>
-      <c r="AD155" s="4"/>
-      <c r="AE155" s="4"/>
-      <c r="AF155" s="4"/>
-      <c r="AG155" s="4"/>
-      <c r="AH155" s="4"/>
-    </row>
-    <row r="156" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="P156" s="4"/>
-      <c r="Q156" s="4"/>
-      <c r="R156" s="4"/>
-      <c r="S156" s="4"/>
-      <c r="U156" s="4"/>
-      <c r="V156" s="4"/>
-      <c r="Y156" s="4"/>
-      <c r="Z156" s="4"/>
-      <c r="AA156" s="4"/>
-      <c r="AC156" s="4"/>
-      <c r="AD156" s="4"/>
-      <c r="AE156" s="4"/>
-      <c r="AF156" s="4"/>
-      <c r="AG156" s="4"/>
-      <c r="AH156" s="4"/>
-    </row>
-    <row r="157" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
-      <c r="N157" s="4"/>
-      <c r="P157" s="4"/>
-      <c r="Q157" s="4"/>
-      <c r="R157" s="4"/>
-      <c r="S157" s="4"/>
-      <c r="U157" s="4"/>
-      <c r="V157" s="4"/>
-      <c r="Y157" s="4"/>
-      <c r="Z157" s="4"/>
-      <c r="AA157" s="4"/>
-      <c r="AC157" s="4"/>
-      <c r="AD157" s="4"/>
-      <c r="AE157" s="4"/>
-      <c r="AF157" s="4"/>
-      <c r="AG157" s="4"/>
-      <c r="AH157" s="4"/>
-    </row>
-    <row r="158" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
-      <c r="I158" s="4"/>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
-      <c r="N158" s="4"/>
-      <c r="P158" s="4"/>
-      <c r="Q158" s="4"/>
-      <c r="R158" s="4"/>
-      <c r="S158" s="4"/>
-      <c r="U158" s="4"/>
-      <c r="V158" s="4"/>
-      <c r="Y158" s="4"/>
-      <c r="Z158" s="4"/>
-      <c r="AA158" s="4"/>
-      <c r="AC158" s="4"/>
-      <c r="AD158" s="4"/>
-      <c r="AE158" s="4"/>
-      <c r="AF158" s="4"/>
-      <c r="AG158" s="4"/>
-      <c r="AH158" s="4"/>
-    </row>
-    <row r="159" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
-      <c r="I159" s="4"/>
-      <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
-      <c r="N159" s="4"/>
-      <c r="P159" s="4"/>
-      <c r="Q159" s="4"/>
-      <c r="R159" s="4"/>
-      <c r="S159" s="4"/>
-      <c r="U159" s="4"/>
-      <c r="V159" s="4"/>
-      <c r="Y159" s="4"/>
-      <c r="Z159" s="4"/>
-      <c r="AA159" s="4"/>
-      <c r="AC159" s="4"/>
-      <c r="AD159" s="4"/>
-      <c r="AE159" s="4"/>
-      <c r="AF159" s="4"/>
-      <c r="AG159" s="4"/>
-      <c r="AH159" s="4"/>
-    </row>
-    <row r="160" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
-      <c r="I160" s="4"/>
-      <c r="K160" s="4"/>
-      <c r="L160" s="4"/>
-      <c r="N160" s="4"/>
-      <c r="P160" s="4"/>
-      <c r="Q160" s="4"/>
-      <c r="R160" s="4"/>
-      <c r="S160" s="4"/>
-      <c r="U160" s="4"/>
-      <c r="V160" s="4"/>
-      <c r="Y160" s="4"/>
-      <c r="Z160" s="4"/>
-      <c r="AA160" s="4"/>
-      <c r="AC160" s="4"/>
-      <c r="AD160" s="4"/>
-      <c r="AE160" s="4"/>
-      <c r="AF160" s="4"/>
-      <c r="AG160" s="4"/>
-      <c r="AH160" s="4"/>
-    </row>
-    <row r="161" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
-      <c r="I161" s="4"/>
-      <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
-      <c r="N161" s="4"/>
-      <c r="P161" s="4"/>
-      <c r="Q161" s="4"/>
-      <c r="R161" s="4"/>
-      <c r="S161" s="4"/>
-      <c r="U161" s="4"/>
-      <c r="V161" s="4"/>
-      <c r="Y161" s="4"/>
-      <c r="Z161" s="4"/>
-      <c r="AA161" s="4"/>
-      <c r="AC161" s="4"/>
-      <c r="AD161" s="4"/>
-      <c r="AE161" s="4"/>
-      <c r="AF161" s="4"/>
-      <c r="AG161" s="4"/>
-      <c r="AH161" s="4"/>
-    </row>
-    <row r="162" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
-      <c r="I162" s="4"/>
-      <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="P162" s="4"/>
-      <c r="Q162" s="4"/>
-      <c r="R162" s="4"/>
-      <c r="S162" s="4"/>
-      <c r="U162" s="4"/>
-      <c r="V162" s="4"/>
-      <c r="Y162" s="4"/>
-      <c r="Z162" s="4"/>
-      <c r="AA162" s="4"/>
-      <c r="AC162" s="4"/>
-      <c r="AD162" s="4"/>
-      <c r="AE162" s="4"/>
-      <c r="AF162" s="4"/>
-      <c r="AG162" s="4"/>
-      <c r="AH162" s="4"/>
-    </row>
-    <row r="163" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="P163" s="4"/>
-      <c r="Q163" s="4"/>
-      <c r="R163" s="4"/>
-      <c r="S163" s="4"/>
-      <c r="U163" s="4"/>
-      <c r="V163" s="4"/>
-      <c r="Y163" s="4"/>
-      <c r="Z163" s="4"/>
-      <c r="AA163" s="4"/>
-      <c r="AC163" s="4"/>
-      <c r="AD163" s="4"/>
-      <c r="AE163" s="4"/>
-      <c r="AF163" s="4"/>
-      <c r="AG163" s="4"/>
-      <c r="AH163" s="4"/>
-    </row>
-    <row r="164" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="P164" s="4"/>
-      <c r="Q164" s="4"/>
-      <c r="R164" s="4"/>
-      <c r="S164" s="4"/>
-      <c r="U164" s="4"/>
-      <c r="V164" s="4"/>
-      <c r="Y164" s="4"/>
-      <c r="Z164" s="4"/>
-      <c r="AA164" s="4"/>
-      <c r="AC164" s="4"/>
-      <c r="AD164" s="4"/>
-      <c r="AE164" s="4"/>
-      <c r="AF164" s="4"/>
-      <c r="AG164" s="4"/>
-      <c r="AH164" s="4"/>
-    </row>
-    <row r="165" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
-      <c r="I165" s="4"/>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="P165" s="4"/>
-      <c r="Q165" s="4"/>
-      <c r="R165" s="4"/>
-      <c r="S165" s="4"/>
-      <c r="U165" s="4"/>
-      <c r="V165" s="4"/>
-      <c r="Y165" s="4"/>
-      <c r="Z165" s="4"/>
-      <c r="AA165" s="4"/>
-      <c r="AC165" s="4"/>
-      <c r="AD165" s="4"/>
-      <c r="AE165" s="4"/>
-      <c r="AF165" s="4"/>
-      <c r="AG165" s="4"/>
-      <c r="AH165" s="4"/>
-    </row>
-    <row r="166" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
-      <c r="I166" s="4"/>
-      <c r="K166" s="4"/>
-      <c r="L166" s="4"/>
-      <c r="N166" s="4"/>
-      <c r="P166" s="4"/>
-      <c r="Q166" s="4"/>
-      <c r="R166" s="4"/>
-      <c r="S166" s="4"/>
-      <c r="U166" s="4"/>
-      <c r="V166" s="4"/>
-      <c r="Y166" s="4"/>
-      <c r="Z166" s="4"/>
-      <c r="AA166" s="4"/>
-      <c r="AC166" s="4"/>
-      <c r="AD166" s="4"/>
-      <c r="AE166" s="4"/>
-      <c r="AF166" s="4"/>
-      <c r="AG166" s="4"/>
-      <c r="AH166" s="4"/>
-    </row>
-    <row r="167" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
-      <c r="I167" s="4"/>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
-      <c r="N167" s="4"/>
-      <c r="P167" s="4"/>
-      <c r="Q167" s="4"/>
-      <c r="R167" s="4"/>
-      <c r="S167" s="4"/>
-      <c r="U167" s="4"/>
-      <c r="V167" s="4"/>
-      <c r="Y167" s="4"/>
-      <c r="Z167" s="4"/>
-      <c r="AA167" s="4"/>
-      <c r="AC167" s="4"/>
-      <c r="AD167" s="4"/>
-      <c r="AE167" s="4"/>
-      <c r="AF167" s="4"/>
-      <c r="AG167" s="4"/>
-      <c r="AH167" s="4"/>
-    </row>
-    <row r="168" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-      <c r="N168" s="4"/>
-      <c r="P168" s="4"/>
-      <c r="Q168" s="4"/>
-      <c r="R168" s="4"/>
-      <c r="S168" s="4"/>
-      <c r="U168" s="4"/>
-      <c r="V168" s="4"/>
-      <c r="Y168" s="4"/>
-      <c r="Z168" s="4"/>
-      <c r="AA168" s="4"/>
-      <c r="AC168" s="4"/>
-      <c r="AD168" s="4"/>
-      <c r="AE168" s="4"/>
-      <c r="AF168" s="4"/>
-      <c r="AG168" s="4"/>
-      <c r="AH168" s="4"/>
-    </row>
-    <row r="169" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
-      <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
-      <c r="N169" s="4"/>
-      <c r="P169" s="4"/>
-      <c r="Q169" s="4"/>
-      <c r="R169" s="4"/>
-      <c r="S169" s="4"/>
-      <c r="U169" s="4"/>
-      <c r="V169" s="4"/>
-      <c r="Y169" s="4"/>
-      <c r="Z169" s="4"/>
-      <c r="AA169" s="4"/>
-      <c r="AC169" s="4"/>
-      <c r="AD169" s="4"/>
-      <c r="AE169" s="4"/>
-      <c r="AF169" s="4"/>
-      <c r="AG169" s="4"/>
-      <c r="AH169" s="4"/>
-    </row>
-    <row r="170" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
-      <c r="N170" s="4"/>
-      <c r="P170" s="4"/>
-      <c r="Q170" s="4"/>
-      <c r="R170" s="4"/>
-      <c r="S170" s="4"/>
-      <c r="U170" s="4"/>
-      <c r="V170" s="4"/>
-      <c r="Y170" s="4"/>
-      <c r="Z170" s="4"/>
-      <c r="AA170" s="4"/>
-      <c r="AC170" s="4"/>
-      <c r="AD170" s="4"/>
-      <c r="AE170" s="4"/>
-      <c r="AF170" s="4"/>
-      <c r="AG170" s="4"/>
-      <c r="AH170" s="4"/>
-    </row>
-    <row r="171" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
-      <c r="N171" s="4"/>
-      <c r="P171" s="4"/>
-      <c r="Q171" s="4"/>
-      <c r="R171" s="4"/>
-      <c r="S171" s="4"/>
-      <c r="U171" s="4"/>
-      <c r="V171" s="4"/>
-      <c r="Y171" s="4"/>
-      <c r="Z171" s="4"/>
-      <c r="AA171" s="4"/>
-      <c r="AC171" s="4"/>
-      <c r="AD171" s="4"/>
-      <c r="AE171" s="4"/>
-      <c r="AF171" s="4"/>
-      <c r="AG171" s="4"/>
-      <c r="AH171" s="4"/>
-    </row>
-    <row r="172" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
-      <c r="N172" s="4"/>
-      <c r="P172" s="4"/>
-      <c r="Q172" s="4"/>
-      <c r="R172" s="4"/>
-      <c r="S172" s="4"/>
-      <c r="U172" s="4"/>
-      <c r="V172" s="4"/>
-      <c r="Y172" s="4"/>
-      <c r="Z172" s="4"/>
-      <c r="AA172" s="4"/>
-      <c r="AC172" s="4"/>
-      <c r="AD172" s="4"/>
-      <c r="AE172" s="4"/>
-      <c r="AF172" s="4"/>
-      <c r="AG172" s="4"/>
-      <c r="AH172" s="4"/>
-    </row>
-    <row r="173" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="N173" s="4"/>
-      <c r="P173" s="4"/>
-      <c r="Q173" s="4"/>
-      <c r="R173" s="4"/>
-      <c r="S173" s="4"/>
-      <c r="U173" s="4"/>
-      <c r="V173" s="4"/>
-      <c r="Y173" s="4"/>
-      <c r="Z173" s="4"/>
-      <c r="AA173" s="4"/>
-      <c r="AC173" s="4"/>
-      <c r="AD173" s="4"/>
-      <c r="AE173" s="4"/>
-      <c r="AF173" s="4"/>
-      <c r="AG173" s="4"/>
-      <c r="AH173" s="4"/>
-    </row>
-    <row r="174" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-      <c r="N174" s="4"/>
-      <c r="P174" s="4"/>
-      <c r="Q174" s="4"/>
-      <c r="R174" s="4"/>
-      <c r="S174" s="4"/>
-      <c r="U174" s="4"/>
-      <c r="V174" s="4"/>
-      <c r="Y174" s="4"/>
-      <c r="Z174" s="4"/>
-      <c r="AA174" s="4"/>
-      <c r="AC174" s="4"/>
-      <c r="AD174" s="4"/>
-      <c r="AE174" s="4"/>
-      <c r="AF174" s="4"/>
-      <c r="AG174" s="4"/>
-      <c r="AH174" s="4"/>
-    </row>
-    <row r="175" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
-      <c r="N175" s="4"/>
-      <c r="P175" s="4"/>
-      <c r="Q175" s="4"/>
-      <c r="R175" s="4"/>
-      <c r="S175" s="4"/>
-      <c r="U175" s="4"/>
-      <c r="V175" s="4"/>
-      <c r="Y175" s="4"/>
-      <c r="Z175" s="4"/>
-      <c r="AA175" s="4"/>
-      <c r="AC175" s="4"/>
-      <c r="AD175" s="4"/>
-      <c r="AE175" s="4"/>
-      <c r="AF175" s="4"/>
-      <c r="AG175" s="4"/>
-      <c r="AH175" s="4"/>
-    </row>
-    <row r="176" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
-      <c r="N176" s="4"/>
-      <c r="P176" s="4"/>
-      <c r="Q176" s="4"/>
-      <c r="R176" s="4"/>
-      <c r="S176" s="4"/>
-      <c r="U176" s="4"/>
-      <c r="V176" s="4"/>
-      <c r="Y176" s="4"/>
-      <c r="Z176" s="4"/>
-      <c r="AA176" s="4"/>
-      <c r="AC176" s="4"/>
-      <c r="AD176" s="4"/>
-      <c r="AE176" s="4"/>
-      <c r="AF176" s="4"/>
-      <c r="AG176" s="4"/>
-      <c r="AH176" s="4"/>
-    </row>
-    <row r="177" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
-      <c r="I177" s="4"/>
-      <c r="K177" s="4"/>
-      <c r="L177" s="4"/>
-      <c r="N177" s="4"/>
-      <c r="P177" s="4"/>
-      <c r="Q177" s="4"/>
-      <c r="R177" s="4"/>
-      <c r="S177" s="4"/>
-      <c r="U177" s="4"/>
-      <c r="V177" s="4"/>
-      <c r="Y177" s="4"/>
-      <c r="Z177" s="4"/>
-      <c r="AA177" s="4"/>
-      <c r="AC177" s="4"/>
-      <c r="AD177" s="4"/>
-      <c r="AE177" s="4"/>
-      <c r="AF177" s="4"/>
-      <c r="AG177" s="4"/>
-      <c r="AH177" s="4"/>
-    </row>
-    <row r="178" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
-      <c r="I178" s="4"/>
-      <c r="K178" s="4"/>
-      <c r="L178" s="4"/>
-      <c r="N178" s="4"/>
-      <c r="P178" s="4"/>
-      <c r="Q178" s="4"/>
-      <c r="R178" s="4"/>
-      <c r="S178" s="4"/>
-      <c r="U178" s="4"/>
-      <c r="V178" s="4"/>
-      <c r="Y178" s="4"/>
-      <c r="Z178" s="4"/>
-      <c r="AA178" s="4"/>
-      <c r="AC178" s="4"/>
-      <c r="AD178" s="4"/>
-      <c r="AE178" s="4"/>
-      <c r="AF178" s="4"/>
-      <c r="AG178" s="4"/>
-      <c r="AH178" s="4"/>
-    </row>
-    <row r="179" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
-      <c r="N179" s="4"/>
-      <c r="P179" s="4"/>
-      <c r="Q179" s="4"/>
-      <c r="R179" s="4"/>
-      <c r="S179" s="4"/>
-      <c r="U179" s="4"/>
-      <c r="V179" s="4"/>
-      <c r="Y179" s="4"/>
-      <c r="Z179" s="4"/>
-      <c r="AA179" s="4"/>
-      <c r="AC179" s="4"/>
-      <c r="AD179" s="4"/>
-      <c r="AE179" s="4"/>
-      <c r="AF179" s="4"/>
-      <c r="AG179" s="4"/>
-      <c r="AH179" s="4"/>
-    </row>
-    <row r="180" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
-      <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
-      <c r="N180" s="4"/>
-      <c r="P180" s="4"/>
-      <c r="Q180" s="4"/>
-      <c r="R180" s="4"/>
-      <c r="S180" s="4"/>
-      <c r="U180" s="4"/>
-      <c r="V180" s="4"/>
-      <c r="Y180" s="4"/>
-      <c r="Z180" s="4"/>
-      <c r="AA180" s="4"/>
-      <c r="AC180" s="4"/>
-      <c r="AD180" s="4"/>
-      <c r="AE180" s="4"/>
-      <c r="AF180" s="4"/>
-      <c r="AG180" s="4"/>
-      <c r="AH180" s="4"/>
-    </row>
-    <row r="181" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
-      <c r="I181" s="4"/>
-      <c r="K181" s="4"/>
-      <c r="L181" s="4"/>
-      <c r="N181" s="4"/>
-      <c r="P181" s="4"/>
-      <c r="Q181" s="4"/>
-      <c r="R181" s="4"/>
-      <c r="S181" s="4"/>
-      <c r="U181" s="4"/>
-      <c r="V181" s="4"/>
-      <c r="Y181" s="4"/>
-      <c r="Z181" s="4"/>
-      <c r="AA181" s="4"/>
-      <c r="AC181" s="4"/>
-      <c r="AD181" s="4"/>
-      <c r="AE181" s="4"/>
-      <c r="AF181" s="4"/>
-      <c r="AG181" s="4"/>
-      <c r="AH181" s="4"/>
-    </row>
-    <row r="182" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
-      <c r="I182" s="4"/>
-      <c r="K182" s="4"/>
-      <c r="L182" s="4"/>
-      <c r="N182" s="4"/>
-      <c r="P182" s="4"/>
-      <c r="Q182" s="4"/>
-      <c r="R182" s="4"/>
-      <c r="S182" s="4"/>
-      <c r="U182" s="4"/>
-      <c r="V182" s="4"/>
-      <c r="Y182" s="4"/>
-      <c r="Z182" s="4"/>
-      <c r="AA182" s="4"/>
-      <c r="AC182" s="4"/>
-      <c r="AD182" s="4"/>
-      <c r="AE182" s="4"/>
-      <c r="AF182" s="4"/>
-      <c r="AG182" s="4"/>
-      <c r="AH182" s="4"/>
-    </row>
-    <row r="183" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
-      <c r="I183" s="4"/>
-      <c r="K183" s="4"/>
-      <c r="L183" s="4"/>
-      <c r="N183" s="4"/>
-      <c r="P183" s="4"/>
-      <c r="Q183" s="4"/>
-      <c r="R183" s="4"/>
-      <c r="S183" s="4"/>
-      <c r="U183" s="4"/>
-      <c r="V183" s="4"/>
-      <c r="Y183" s="4"/>
-      <c r="Z183" s="4"/>
-      <c r="AA183" s="4"/>
-      <c r="AC183" s="4"/>
-      <c r="AD183" s="4"/>
-      <c r="AE183" s="4"/>
-      <c r="AF183" s="4"/>
-      <c r="AG183" s="4"/>
-      <c r="AH183" s="4"/>
-    </row>
-    <row r="184" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
-      <c r="H184" s="4"/>
-      <c r="I184" s="4"/>
-      <c r="K184" s="4"/>
-      <c r="L184" s="4"/>
-      <c r="N184" s="4"/>
-      <c r="P184" s="4"/>
-      <c r="Q184" s="4"/>
-      <c r="R184" s="4"/>
-      <c r="S184" s="4"/>
-      <c r="U184" s="4"/>
-      <c r="V184" s="4"/>
-      <c r="Y184" s="4"/>
-      <c r="Z184" s="4"/>
-      <c r="AA184" s="4"/>
-      <c r="AC184" s="4"/>
-      <c r="AD184" s="4"/>
-      <c r="AE184" s="4"/>
-      <c r="AF184" s="4"/>
-      <c r="AG184" s="4"/>
-      <c r="AH184" s="4"/>
-    </row>
-    <row r="185" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
-      <c r="H185" s="4"/>
-      <c r="I185" s="4"/>
-      <c r="K185" s="4"/>
-      <c r="L185" s="4"/>
-      <c r="N185" s="4"/>
-      <c r="P185" s="4"/>
-      <c r="Q185" s="4"/>
-      <c r="R185" s="4"/>
-      <c r="S185" s="4"/>
-      <c r="U185" s="4"/>
-      <c r="V185" s="4"/>
-      <c r="Y185" s="4"/>
-      <c r="Z185" s="4"/>
-      <c r="AA185" s="4"/>
-      <c r="AC185" s="4"/>
-      <c r="AD185" s="4"/>
-      <c r="AE185" s="4"/>
-      <c r="AF185" s="4"/>
-      <c r="AG185" s="4"/>
-      <c r="AH185" s="4"/>
-    </row>
-    <row r="186" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
-      <c r="H186" s="4"/>
-      <c r="I186" s="4"/>
-      <c r="K186" s="4"/>
-      <c r="L186" s="4"/>
-      <c r="N186" s="4"/>
-      <c r="P186" s="4"/>
-      <c r="Q186" s="4"/>
-      <c r="R186" s="4"/>
-      <c r="S186" s="4"/>
-      <c r="U186" s="4"/>
-      <c r="V186" s="4"/>
-      <c r="Y186" s="4"/>
-      <c r="Z186" s="4"/>
-      <c r="AA186" s="4"/>
-      <c r="AC186" s="4"/>
-      <c r="AD186" s="4"/>
-      <c r="AE186" s="4"/>
-      <c r="AF186" s="4"/>
-      <c r="AG186" s="4"/>
-      <c r="AH186" s="4"/>
-    </row>
-    <row r="187" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
-      <c r="H187" s="4"/>
-      <c r="I187" s="4"/>
-      <c r="K187" s="4"/>
-      <c r="L187" s="4"/>
-      <c r="N187" s="4"/>
-      <c r="P187" s="4"/>
-      <c r="Q187" s="4"/>
-      <c r="R187" s="4"/>
-      <c r="S187" s="4"/>
-      <c r="U187" s="4"/>
-      <c r="V187" s="4"/>
-      <c r="Y187" s="4"/>
-      <c r="Z187" s="4"/>
-      <c r="AA187" s="4"/>
-      <c r="AC187" s="4"/>
-      <c r="AD187" s="4"/>
-      <c r="AE187" s="4"/>
-      <c r="AF187" s="4"/>
-      <c r="AG187" s="4"/>
-      <c r="AH187" s="4"/>
-    </row>
-    <row r="188" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-      <c r="H188" s="4"/>
-      <c r="I188" s="4"/>
-      <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
-      <c r="N188" s="4"/>
-      <c r="P188" s="4"/>
-      <c r="Q188" s="4"/>
-      <c r="R188" s="4"/>
-      <c r="S188" s="4"/>
-      <c r="U188" s="4"/>
-      <c r="V188" s="4"/>
-      <c r="Y188" s="4"/>
-      <c r="Z188" s="4"/>
-      <c r="AA188" s="4"/>
-      <c r="AC188" s="4"/>
-      <c r="AD188" s="4"/>
-      <c r="AE188" s="4"/>
-      <c r="AF188" s="4"/>
-      <c r="AG188" s="4"/>
-      <c r="AH188" s="4"/>
-    </row>
-    <row r="189" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
-      <c r="H189" s="4"/>
-      <c r="I189" s="4"/>
-      <c r="K189" s="4"/>
-      <c r="L189" s="4"/>
-      <c r="N189" s="4"/>
-      <c r="P189" s="4"/>
-      <c r="Q189" s="4"/>
-      <c r="R189" s="4"/>
-      <c r="S189" s="4"/>
-      <c r="U189" s="4"/>
-      <c r="V189" s="4"/>
-      <c r="Y189" s="4"/>
-      <c r="Z189" s="4"/>
-      <c r="AA189" s="4"/>
-      <c r="AC189" s="4"/>
-      <c r="AD189" s="4"/>
-      <c r="AE189" s="4"/>
-      <c r="AF189" s="4"/>
-      <c r="AG189" s="4"/>
-      <c r="AH189" s="4"/>
-    </row>
-    <row r="190" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
-      <c r="H190" s="4"/>
-      <c r="I190" s="4"/>
-      <c r="K190" s="4"/>
-      <c r="L190" s="4"/>
-      <c r="N190" s="4"/>
-      <c r="P190" s="4"/>
-      <c r="Q190" s="4"/>
-      <c r="R190" s="4"/>
-      <c r="S190" s="4"/>
-      <c r="U190" s="4"/>
-      <c r="V190" s="4"/>
-      <c r="Y190" s="4"/>
-      <c r="Z190" s="4"/>
-      <c r="AA190" s="4"/>
-      <c r="AC190" s="4"/>
-      <c r="AD190" s="4"/>
-      <c r="AE190" s="4"/>
-      <c r="AF190" s="4"/>
-      <c r="AG190" s="4"/>
-      <c r="AH190" s="4"/>
-    </row>
-    <row r="191" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
-      <c r="I191" s="4"/>
-      <c r="K191" s="4"/>
-      <c r="L191" s="4"/>
-      <c r="N191" s="4"/>
-      <c r="P191" s="4"/>
-      <c r="Q191" s="4"/>
-      <c r="R191" s="4"/>
-      <c r="S191" s="4"/>
-      <c r="U191" s="4"/>
-      <c r="V191" s="4"/>
-      <c r="Y191" s="4"/>
-      <c r="Z191" s="4"/>
-      <c r="AA191" s="4"/>
-      <c r="AC191" s="4"/>
-      <c r="AD191" s="4"/>
-      <c r="AE191" s="4"/>
-      <c r="AF191" s="4"/>
-      <c r="AG191" s="4"/>
-      <c r="AH191" s="4"/>
-    </row>
-    <row r="192" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-      <c r="H192" s="4"/>
-      <c r="I192" s="4"/>
-      <c r="K192" s="4"/>
-      <c r="L192" s="4"/>
-      <c r="N192" s="4"/>
-      <c r="P192" s="4"/>
-      <c r="Q192" s="4"/>
-      <c r="R192" s="4"/>
-      <c r="S192" s="4"/>
-      <c r="U192" s="4"/>
-      <c r="V192" s="4"/>
-      <c r="Y192" s="4"/>
-      <c r="Z192" s="4"/>
-      <c r="AA192" s="4"/>
-      <c r="AC192" s="4"/>
-      <c r="AD192" s="4"/>
-      <c r="AE192" s="4"/>
-      <c r="AF192" s="4"/>
-      <c r="AG192" s="4"/>
-      <c r="AH192" s="4"/>
-    </row>
-    <row r="193" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-      <c r="H193" s="4"/>
-      <c r="I193" s="4"/>
-      <c r="K193" s="4"/>
-      <c r="L193" s="4"/>
-      <c r="N193" s="4"/>
-      <c r="P193" s="4"/>
-      <c r="Q193" s="4"/>
-      <c r="R193" s="4"/>
-      <c r="S193" s="4"/>
-      <c r="U193" s="4"/>
-      <c r="V193" s="4"/>
-      <c r="Y193" s="4"/>
-      <c r="Z193" s="4"/>
-      <c r="AA193" s="4"/>
-      <c r="AC193" s="4"/>
-      <c r="AD193" s="4"/>
-      <c r="AE193" s="4"/>
-      <c r="AF193" s="4"/>
-      <c r="AG193" s="4"/>
-      <c r="AH193" s="4"/>
-    </row>
-    <row r="194" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
-      <c r="H194" s="4"/>
-      <c r="I194" s="4"/>
-      <c r="K194" s="4"/>
-      <c r="L194" s="4"/>
-      <c r="N194" s="4"/>
-      <c r="P194" s="4"/>
-      <c r="Q194" s="4"/>
-      <c r="R194" s="4"/>
-      <c r="S194" s="4"/>
-      <c r="U194" s="4"/>
-      <c r="V194" s="4"/>
-      <c r="Y194" s="4"/>
-      <c r="Z194" s="4"/>
-      <c r="AA194" s="4"/>
-      <c r="AC194" s="4"/>
-      <c r="AD194" s="4"/>
-      <c r="AE194" s="4"/>
-      <c r="AF194" s="4"/>
-      <c r="AG194" s="4"/>
-      <c r="AH194" s="4"/>
-    </row>
-    <row r="195" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
-      <c r="H195" s="4"/>
-      <c r="I195" s="4"/>
-      <c r="K195" s="4"/>
-      <c r="L195" s="4"/>
-      <c r="N195" s="4"/>
-      <c r="P195" s="4"/>
-      <c r="Q195" s="4"/>
-      <c r="R195" s="4"/>
-      <c r="S195" s="4"/>
-      <c r="U195" s="4"/>
-      <c r="V195" s="4"/>
-      <c r="Y195" s="4"/>
-      <c r="Z195" s="4"/>
-      <c r="AA195" s="4"/>
-      <c r="AC195" s="4"/>
-      <c r="AD195" s="4"/>
-      <c r="AE195" s="4"/>
-      <c r="AF195" s="4"/>
-      <c r="AG195" s="4"/>
-      <c r="AH195" s="4"/>
-    </row>
-    <row r="196" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
-      <c r="H196" s="4"/>
-      <c r="I196" s="4"/>
-      <c r="K196" s="4"/>
-      <c r="L196" s="4"/>
-      <c r="N196" s="4"/>
-      <c r="P196" s="4"/>
-      <c r="Q196" s="4"/>
-      <c r="R196" s="4"/>
-      <c r="S196" s="4"/>
-      <c r="U196" s="4"/>
-      <c r="V196" s="4"/>
-      <c r="Y196" s="4"/>
-      <c r="Z196" s="4"/>
-      <c r="AA196" s="4"/>
-      <c r="AC196" s="4"/>
-      <c r="AD196" s="4"/>
-      <c r="AE196" s="4"/>
-      <c r="AF196" s="4"/>
-      <c r="AG196" s="4"/>
-      <c r="AH196" s="4"/>
-    </row>
-    <row r="197" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="4"/>
-      <c r="F197" s="4"/>
-      <c r="G197" s="4"/>
-      <c r="H197" s="4"/>
-      <c r="I197" s="4"/>
-      <c r="K197" s="4"/>
-      <c r="L197" s="4"/>
-      <c r="N197" s="4"/>
-      <c r="P197" s="4"/>
-      <c r="Q197" s="4"/>
-      <c r="R197" s="4"/>
-      <c r="S197" s="4"/>
-      <c r="U197" s="4"/>
-      <c r="V197" s="4"/>
-      <c r="Y197" s="4"/>
-      <c r="Z197" s="4"/>
-      <c r="AA197" s="4"/>
-      <c r="AC197" s="4"/>
-      <c r="AD197" s="4"/>
-      <c r="AE197" s="4"/>
-      <c r="AF197" s="4"/>
-      <c r="AG197" s="4"/>
-      <c r="AH197" s="4"/>
-    </row>
-    <row r="198" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
-      <c r="G198" s="4"/>
-      <c r="H198" s="4"/>
-      <c r="I198" s="4"/>
-      <c r="K198" s="4"/>
-      <c r="L198" s="4"/>
-      <c r="N198" s="4"/>
-      <c r="P198" s="4"/>
-      <c r="Q198" s="4"/>
-      <c r="R198" s="4"/>
-      <c r="S198" s="4"/>
-      <c r="U198" s="4"/>
-      <c r="V198" s="4"/>
-      <c r="Y198" s="4"/>
-      <c r="Z198" s="4"/>
-      <c r="AA198" s="4"/>
-      <c r="AC198" s="4"/>
-      <c r="AD198" s="4"/>
-      <c r="AE198" s="4"/>
-      <c r="AF198" s="4"/>
-      <c r="AG198" s="4"/>
-      <c r="AH198" s="4"/>
-    </row>
-    <row r="199" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
-      <c r="G199" s="4"/>
-      <c r="H199" s="4"/>
-      <c r="I199" s="4"/>
-      <c r="K199" s="4"/>
-      <c r="L199" s="4"/>
-      <c r="N199" s="4"/>
-      <c r="P199" s="4"/>
-      <c r="Q199" s="4"/>
-      <c r="R199" s="4"/>
-      <c r="S199" s="4"/>
-      <c r="U199" s="4"/>
-      <c r="V199" s="4"/>
-      <c r="Y199" s="4"/>
-      <c r="Z199" s="4"/>
-      <c r="AA199" s="4"/>
-      <c r="AC199" s="4"/>
-      <c r="AD199" s="4"/>
-      <c r="AE199" s="4"/>
-      <c r="AF199" s="4"/>
-      <c r="AG199" s="4"/>
-      <c r="AH199" s="4"/>
-    </row>
-    <row r="200" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
-      <c r="F200" s="4"/>
-      <c r="G200" s="4"/>
-      <c r="H200" s="4"/>
-      <c r="I200" s="4"/>
-      <c r="K200" s="4"/>
-      <c r="L200" s="4"/>
-      <c r="N200" s="4"/>
-      <c r="P200" s="4"/>
-      <c r="Q200" s="4"/>
-      <c r="R200" s="4"/>
-      <c r="S200" s="4"/>
-      <c r="U200" s="4"/>
-      <c r="V200" s="4"/>
-      <c r="Y200" s="4"/>
-      <c r="Z200" s="4"/>
-      <c r="AA200" s="4"/>
-      <c r="AC200" s="4"/>
-      <c r="AD200" s="4"/>
-      <c r="AE200" s="4"/>
-      <c r="AF200" s="4"/>
-      <c r="AG200" s="4"/>
-      <c r="AH200" s="4"/>
-    </row>
-    <row r="201" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-      <c r="G201" s="4"/>
-      <c r="H201" s="4"/>
-      <c r="K201" s="4"/>
-      <c r="L201" s="4"/>
-      <c r="N201" s="4"/>
-      <c r="P201" s="4"/>
-      <c r="Q201" s="4"/>
-      <c r="R201" s="4"/>
-      <c r="S201" s="4"/>
-      <c r="U201" s="4"/>
-      <c r="V201" s="4"/>
-      <c r="Y201" s="4"/>
-      <c r="Z201" s="4"/>
-      <c r="AA201" s="4"/>
-      <c r="AC201" s="4"/>
-      <c r="AD201" s="4"/>
-      <c r="AE201" s="4"/>
-      <c r="AF201" s="4"/>
-      <c r="AG201" s="4"/>
-      <c r="AH201" s="4"/>
-    </row>
-    <row r="202" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="G202" s="4"/>
-      <c r="H202" s="4"/>
-      <c r="K202" s="4"/>
-      <c r="P202" s="4"/>
-      <c r="Q202" s="4"/>
-      <c r="R202" s="4"/>
-      <c r="S202" s="4"/>
-      <c r="U202" s="4"/>
-      <c r="V202" s="4"/>
-      <c r="Y202" s="4"/>
-      <c r="Z202" s="4"/>
-      <c r="AA202" s="4"/>
-      <c r="AC202" s="4"/>
-      <c r="AD202" s="4"/>
-      <c r="AE202" s="4"/>
-      <c r="AF202" s="4"/>
-      <c r="AG202" s="4"/>
-      <c r="AH202" s="4"/>
-    </row>
-    <row r="203" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="G203" s="4"/>
-      <c r="H203" s="4"/>
-      <c r="K203" s="4"/>
-      <c r="S203" s="4"/>
-      <c r="U203" s="4"/>
-      <c r="V203" s="4"/>
-      <c r="Y203" s="4"/>
-      <c r="Z203" s="4"/>
-      <c r="AA203" s="4"/>
-      <c r="AC203" s="4"/>
-      <c r="AD203" s="4"/>
-      <c r="AE203" s="4"/>
-    </row>
-    <row r="204" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-      <c r="G204" s="4"/>
-      <c r="H204" s="4"/>
-      <c r="K204" s="4"/>
-      <c r="T204" s="4"/>
-      <c r="U204" s="4"/>
-      <c r="V204" s="4"/>
-      <c r="Y204" s="4"/>
-      <c r="Z204" s="4"/>
-      <c r="AA204" s="4"/>
-      <c r="AC204" s="4"/>
-      <c r="AD204" s="4"/>
-      <c r="AE204" s="4"/>
-    </row>
-    <row r="205" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="G205" s="4"/>
-      <c r="H205" s="4"/>
-      <c r="K205" s="4"/>
-      <c r="T205" s="4"/>
-      <c r="U205" s="4"/>
-      <c r="V205" s="4"/>
-      <c r="Y205" s="4"/>
-      <c r="Z205" s="4"/>
-      <c r="AA205" s="4"/>
-      <c r="AC205" s="4"/>
-      <c r="AD205" s="4"/>
-      <c r="AE205" s="4"/>
-    </row>
-    <row r="206" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-      <c r="G206" s="4"/>
-      <c r="H206" s="4"/>
-      <c r="K206" s="4"/>
-      <c r="T206" s="4"/>
-      <c r="U206" s="4"/>
-      <c r="V206" s="4"/>
-      <c r="Y206" s="4"/>
-      <c r="Z206" s="4"/>
-      <c r="AA206" s="4"/>
-      <c r="AC206" s="4"/>
-      <c r="AD206" s="4"/>
-      <c r="AE206" s="4"/>
-    </row>
-    <row r="207" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
-      <c r="G207" s="4"/>
-      <c r="H207" s="4"/>
-      <c r="K207" s="4"/>
-      <c r="T207" s="4"/>
-      <c r="U207" s="4"/>
-      <c r="V207" s="4"/>
-      <c r="Y207" s="4"/>
-      <c r="Z207" s="4"/>
-      <c r="AA207" s="4"/>
-      <c r="AC207" s="4"/>
-      <c r="AD207" s="4"/>
-      <c r="AE207" s="4"/>
-    </row>
-    <row r="208" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
-      <c r="G208" s="4"/>
-      <c r="H208" s="4"/>
-      <c r="K208" s="4"/>
-      <c r="T208" s="4"/>
-      <c r="U208" s="4"/>
-      <c r="V208" s="4"/>
-      <c r="Y208" s="4"/>
-      <c r="Z208" s="4"/>
-      <c r="AA208" s="4"/>
-      <c r="AC208" s="4"/>
-      <c r="AD208" s="4"/>
-      <c r="AE208" s="4"/>
-    </row>
-    <row r="209" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
-      <c r="G209" s="4"/>
-      <c r="H209" s="4"/>
-      <c r="K209" s="4"/>
-      <c r="T209" s="4"/>
-      <c r="U209" s="4"/>
-      <c r="V209" s="4"/>
-      <c r="Y209" s="4"/>
-      <c r="Z209" s="4"/>
-      <c r="AA209" s="4"/>
-      <c r="AC209" s="4"/>
-      <c r="AD209" s="4"/>
-      <c r="AE209" s="4"/>
-    </row>
-    <row r="210" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
-      <c r="G210" s="4"/>
-      <c r="H210" s="4"/>
-      <c r="K210" s="4"/>
-      <c r="T210" s="4"/>
-      <c r="U210" s="4"/>
-      <c r="V210" s="4"/>
-      <c r="Y210" s="4"/>
-      <c r="Z210" s="4"/>
-      <c r="AA210" s="4"/>
-      <c r="AC210" s="4"/>
-      <c r="AD210" s="4"/>
-      <c r="AE210" s="4"/>
-    </row>
-    <row r="211" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
-      <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
-      <c r="K211" s="4"/>
-      <c r="T211" s="4"/>
-      <c r="U211" s="4"/>
-      <c r="V211" s="4"/>
-      <c r="Y211" s="4"/>
-      <c r="Z211" s="4"/>
-      <c r="AA211" s="4"/>
-      <c r="AC211" s="4"/>
-      <c r="AD211" s="4"/>
-      <c r="AE211" s="4"/>
-    </row>
-    <row r="212" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
-      <c r="G212" s="4"/>
-      <c r="H212" s="4"/>
-      <c r="K212" s="4"/>
-      <c r="T212" s="4"/>
-      <c r="U212" s="4"/>
-      <c r="V212" s="4"/>
-      <c r="Y212" s="4"/>
-      <c r="Z212" s="4"/>
-      <c r="AA212" s="4"/>
-      <c r="AC212" s="4"/>
-      <c r="AD212" s="4"/>
-      <c r="AE212" s="4"/>
-    </row>
-    <row r="213" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-      <c r="G213" s="4"/>
-      <c r="H213" s="4"/>
-      <c r="K213" s="4"/>
-      <c r="T213" s="4"/>
-      <c r="U213" s="4"/>
-      <c r="V213" s="4"/>
-      <c r="Y213" s="4"/>
-      <c r="Z213" s="4"/>
-      <c r="AA213" s="4"/>
-      <c r="AC213" s="4"/>
-      <c r="AD213" s="4"/>
-      <c r="AE213" s="4"/>
-    </row>
-    <row r="214" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
-      <c r="G214" s="4"/>
-      <c r="H214" s="4"/>
-      <c r="K214" s="4"/>
-      <c r="T214" s="4"/>
-      <c r="U214" s="4"/>
-      <c r="V214" s="4"/>
-      <c r="Y214" s="4"/>
-      <c r="Z214" s="4"/>
-      <c r="AA214" s="4"/>
-      <c r="AC214" s="4"/>
-      <c r="AD214" s="4"/>
-      <c r="AE214" s="4"/>
-    </row>
-    <row r="215" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
-      <c r="G215" s="4"/>
-      <c r="H215" s="4"/>
-      <c r="K215" s="4"/>
-      <c r="T215" s="4"/>
-      <c r="U215" s="4"/>
-      <c r="V215" s="4"/>
-      <c r="Y215" s="4"/>
-      <c r="Z215" s="4"/>
-      <c r="AA215" s="4"/>
-      <c r="AC215" s="4"/>
-      <c r="AD215" s="4"/>
-      <c r="AE215" s="4"/>
-    </row>
-    <row r="216" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
-      <c r="G216" s="4"/>
-      <c r="H216" s="4"/>
-      <c r="K216" s="4"/>
-      <c r="T216" s="4"/>
-      <c r="U216" s="4"/>
-      <c r="V216" s="4"/>
-      <c r="Y216" s="4"/>
-      <c r="Z216" s="4"/>
-      <c r="AA216" s="4"/>
-      <c r="AC216" s="4"/>
-      <c r="AD216" s="4"/>
-      <c r="AE216" s="4"/>
-    </row>
-    <row r="217" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-      <c r="G217" s="4"/>
-      <c r="H217" s="4"/>
-      <c r="K217" s="4"/>
-      <c r="T217" s="4"/>
-      <c r="U217" s="4"/>
-      <c r="V217" s="4"/>
-      <c r="Y217" s="4"/>
-      <c r="Z217" s="4"/>
-      <c r="AA217" s="4"/>
-      <c r="AC217" s="4"/>
-      <c r="AD217" s="4"/>
-      <c r="AE217" s="4"/>
-    </row>
-    <row r="218" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-      <c r="G218" s="4"/>
-      <c r="H218" s="4"/>
-      <c r="K218" s="4"/>
-      <c r="T218" s="4"/>
-      <c r="U218" s="4"/>
-      <c r="V218" s="4"/>
-      <c r="Y218" s="4"/>
-      <c r="Z218" s="4"/>
-      <c r="AA218" s="4"/>
-      <c r="AC218" s="4"/>
-      <c r="AD218" s="4"/>
-      <c r="AE218" s="4"/>
-    </row>
-    <row r="219" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
-      <c r="G219" s="4"/>
-      <c r="H219" s="4"/>
-      <c r="K219" s="4"/>
-      <c r="T219" s="4"/>
-      <c r="U219" s="4"/>
-      <c r="V219" s="4"/>
-      <c r="Y219" s="4"/>
-      <c r="Z219" s="4"/>
-      <c r="AA219" s="4"/>
-      <c r="AC219" s="4"/>
-      <c r="AD219" s="4"/>
-      <c r="AE219" s="4"/>
-    </row>
-    <row r="220" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="G220" s="4"/>
-      <c r="H220" s="4"/>
-      <c r="K220" s="4"/>
-      <c r="T220" s="4"/>
-      <c r="U220" s="4"/>
-      <c r="V220" s="4"/>
-      <c r="Y220" s="4"/>
-      <c r="Z220" s="4"/>
-      <c r="AA220" s="4"/>
-      <c r="AC220" s="4"/>
-      <c r="AD220" s="4"/>
-      <c r="AE220" s="4"/>
-    </row>
-    <row r="221" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
-      <c r="G221" s="4"/>
-      <c r="H221" s="4"/>
-      <c r="K221" s="4"/>
-      <c r="T221" s="4"/>
-      <c r="U221" s="4"/>
-      <c r="V221" s="4"/>
-      <c r="Y221" s="4"/>
-      <c r="Z221" s="4"/>
-      <c r="AA221" s="4"/>
-      <c r="AC221" s="4"/>
-      <c r="AD221" s="4"/>
-      <c r="AE221" s="4"/>
-    </row>
-    <row r="222" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
-      <c r="K222" s="4"/>
-      <c r="T222" s="4"/>
-      <c r="U222" s="4"/>
-      <c r="V222" s="4"/>
-      <c r="Y222" s="4"/>
-      <c r="Z222" s="4"/>
-      <c r="AA222" s="4"/>
-      <c r="AC222" s="4"/>
-      <c r="AD222" s="4"/>
-      <c r="AE222" s="4"/>
-    </row>
-    <row r="223" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
-      <c r="G223" s="4"/>
-      <c r="H223" s="4"/>
-      <c r="K223" s="4"/>
-      <c r="T223" s="4"/>
-      <c r="U223" s="4"/>
-      <c r="V223" s="4"/>
-      <c r="Y223" s="4"/>
-      <c r="Z223" s="4"/>
-      <c r="AA223" s="4"/>
-      <c r="AC223" s="4"/>
-      <c r="AD223" s="4"/>
-      <c r="AE223" s="4"/>
-    </row>
-    <row r="224" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
-      <c r="G224" s="4"/>
-      <c r="H224" s="4"/>
-      <c r="K224" s="4"/>
-      <c r="T224" s="4"/>
-      <c r="U224" s="4"/>
-      <c r="V224" s="4"/>
-      <c r="Y224" s="4"/>
-      <c r="Z224" s="4"/>
-      <c r="AA224" s="4"/>
-      <c r="AC224" s="4"/>
-      <c r="AD224" s="4"/>
-      <c r="AE224" s="4"/>
-    </row>
-    <row r="225" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
-      <c r="G225" s="4"/>
-      <c r="H225" s="4"/>
-      <c r="K225" s="4"/>
-      <c r="T225" s="4"/>
-      <c r="U225" s="4"/>
-      <c r="V225" s="4"/>
-      <c r="Y225" s="4"/>
-      <c r="Z225" s="4"/>
-      <c r="AA225" s="4"/>
-      <c r="AC225" s="4"/>
-      <c r="AD225" s="4"/>
-      <c r="AE225" s="4"/>
-    </row>
-    <row r="226" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
-      <c r="G226" s="4"/>
-      <c r="H226" s="4"/>
-      <c r="K226" s="4"/>
-      <c r="T226" s="4"/>
-      <c r="U226" s="4"/>
-      <c r="V226" s="4"/>
-      <c r="Y226" s="4"/>
-      <c r="Z226" s="4"/>
-      <c r="AA226" s="4"/>
-      <c r="AC226" s="4"/>
-      <c r="AD226" s="4"/>
-      <c r="AE226" s="4"/>
-    </row>
-    <row r="227" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
-      <c r="G227" s="4"/>
-      <c r="H227" s="4"/>
-      <c r="K227" s="4"/>
-      <c r="T227" s="4"/>
-      <c r="U227" s="4"/>
-      <c r="V227" s="4"/>
-      <c r="Y227" s="4"/>
-      <c r="Z227" s="4"/>
-      <c r="AA227" s="4"/>
-      <c r="AC227" s="4"/>
-      <c r="AD227" s="4"/>
-      <c r="AE227" s="4"/>
-    </row>
-    <row r="228" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="G228" s="4"/>
-      <c r="H228" s="4"/>
-      <c r="K228" s="4"/>
-      <c r="T228" s="4"/>
-      <c r="U228" s="4"/>
-      <c r="V228" s="4"/>
-      <c r="Y228" s="4"/>
-      <c r="Z228" s="4"/>
-      <c r="AA228" s="4"/>
-      <c r="AC228" s="4"/>
-      <c r="AD228" s="4"/>
-      <c r="AE228" s="4"/>
-    </row>
-    <row r="229" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-      <c r="G229" s="4"/>
-      <c r="H229" s="4"/>
-      <c r="K229" s="4"/>
-      <c r="T229" s="4"/>
-      <c r="U229" s="4"/>
-      <c r="V229" s="4"/>
-      <c r="Y229" s="4"/>
-      <c r="Z229" s="4"/>
-      <c r="AA229" s="4"/>
-      <c r="AC229" s="4"/>
-      <c r="AD229" s="4"/>
-      <c r="AE229" s="4"/>
-    </row>
-    <row r="230" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-      <c r="G230" s="4"/>
-      <c r="H230" s="4"/>
-      <c r="K230" s="4"/>
-      <c r="T230" s="4"/>
-      <c r="U230" s="4"/>
-      <c r="V230" s="4"/>
-      <c r="Y230" s="4"/>
-      <c r="Z230" s="4"/>
-      <c r="AA230" s="4"/>
-      <c r="AC230" s="4"/>
-      <c r="AD230" s="4"/>
-      <c r="AE230" s="4"/>
-    </row>
-    <row r="231" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-      <c r="G231" s="4"/>
-      <c r="H231" s="4"/>
-      <c r="K231" s="4"/>
-      <c r="T231" s="4"/>
-      <c r="U231" s="4"/>
-      <c r="V231" s="4"/>
-      <c r="Y231" s="4"/>
-      <c r="Z231" s="4"/>
-      <c r="AA231" s="4"/>
-      <c r="AC231" s="4"/>
-      <c r="AD231" s="4"/>
-      <c r="AE231" s="4"/>
-    </row>
-    <row r="232" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
-      <c r="G232" s="4"/>
-      <c r="H232" s="4"/>
-      <c r="K232" s="4"/>
-      <c r="T232" s="4"/>
-      <c r="U232" s="4"/>
-      <c r="V232" s="4"/>
-      <c r="Y232" s="4"/>
-      <c r="Z232" s="4"/>
-      <c r="AA232" s="4"/>
-      <c r="AC232" s="4"/>
-      <c r="AD232" s="4"/>
-      <c r="AE232" s="4"/>
-    </row>
-    <row r="233" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
-      <c r="G233" s="4"/>
-      <c r="H233" s="4"/>
-      <c r="K233" s="4"/>
-      <c r="T233" s="4"/>
-      <c r="U233" s="4"/>
-      <c r="V233" s="4"/>
-      <c r="Y233" s="4"/>
-      <c r="Z233" s="4"/>
-      <c r="AA233" s="4"/>
-      <c r="AC233" s="4"/>
-      <c r="AD233" s="4"/>
-      <c r="AE233" s="4"/>
-    </row>
-    <row r="234" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
-      <c r="G234" s="4"/>
-      <c r="H234" s="4"/>
-      <c r="K234" s="4"/>
-      <c r="T234" s="4"/>
-      <c r="U234" s="4"/>
-      <c r="V234" s="4"/>
-      <c r="Y234" s="4"/>
-      <c r="Z234" s="4"/>
-      <c r="AA234" s="4"/>
-      <c r="AC234" s="4"/>
-      <c r="AD234" s="4"/>
-      <c r="AE234" s="4"/>
-    </row>
-    <row r="235" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
-      <c r="G235" s="4"/>
-      <c r="H235" s="4"/>
-      <c r="K235" s="4"/>
-      <c r="T235" s="4"/>
-      <c r="U235" s="4"/>
-      <c r="V235" s="4"/>
-      <c r="Y235" s="4"/>
-      <c r="Z235" s="4"/>
-      <c r="AA235" s="4"/>
-      <c r="AC235" s="4"/>
-      <c r="AD235" s="4"/>
-      <c r="AE235" s="4"/>
-    </row>
-    <row r="236" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C236" s="4"/>
-      <c r="G236" s="4"/>
-      <c r="T236" s="4"/>
-      <c r="U236" s="4"/>
-      <c r="V236" s="4"/>
-      <c r="Y236" s="4"/>
-      <c r="Z236" s="4"/>
-      <c r="AA236" s="4"/>
-      <c r="AC236" s="4"/>
-      <c r="AD236" s="4"/>
-      <c r="AE236" s="4"/>
-    </row>
-    <row r="237" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C237" s="4"/>
-      <c r="G237" s="4"/>
-      <c r="T237" s="4"/>
-      <c r="U237" s="4"/>
-      <c r="V237" s="4"/>
-      <c r="AC237" s="4"/>
-      <c r="AD237" s="4"/>
-      <c r="AE237" s="4"/>
-    </row>
-    <row r="238" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C238" s="4"/>
-      <c r="G238" s="4"/>
-      <c r="T238" s="4"/>
-      <c r="U238" s="4"/>
-      <c r="V238" s="4"/>
-      <c r="AC238" s="4"/>
-      <c r="AD238" s="4"/>
-      <c r="AE238" s="4"/>
-    </row>
-    <row r="239" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C239" s="4"/>
-      <c r="G239" s="4"/>
-      <c r="T239" s="4"/>
-      <c r="U239" s="4"/>
-      <c r="V239" s="4"/>
-      <c r="AC239" s="4"/>
-      <c r="AD239" s="4"/>
-      <c r="AE239" s="4"/>
-    </row>
-    <row r="240" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C240" s="4"/>
-      <c r="G240" s="4"/>
-      <c r="T240" s="4"/>
-      <c r="U240" s="4"/>
-      <c r="V240" s="4"/>
-      <c r="AC240" s="4"/>
-      <c r="AD240" s="4"/>
-      <c r="AE240" s="4"/>
-    </row>
-    <row r="241" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C241" s="4"/>
-      <c r="G241" s="4"/>
-      <c r="T241" s="4"/>
-      <c r="U241" s="4"/>
-      <c r="V241" s="4"/>
-      <c r="AC241" s="4"/>
-      <c r="AD241" s="4"/>
-      <c r="AE241" s="4"/>
-    </row>
-    <row r="242" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C242" s="4"/>
-      <c r="G242" s="4"/>
-      <c r="T242" s="4"/>
-      <c r="U242" s="4"/>
-      <c r="V242" s="4"/>
-      <c r="AC242" s="4"/>
-      <c r="AD242" s="4"/>
-      <c r="AE242" s="4"/>
-    </row>
-    <row r="243" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C243" s="4"/>
-      <c r="G243" s="4"/>
-      <c r="AC243" s="4"/>
-      <c r="AD243" s="4"/>
-      <c r="AE243" s="4"/>
-    </row>
-    <row r="244" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C244" s="4"/>
-      <c r="G244" s="4"/>
-      <c r="AC244" s="4"/>
-      <c r="AD244" s="4"/>
-      <c r="AE244" s="4"/>
-    </row>
-    <row r="245" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C245" s="4"/>
-      <c r="G245" s="4"/>
-      <c r="AC245" s="4"/>
-      <c r="AD245" s="4"/>
-      <c r="AE245" s="4"/>
-    </row>
-    <row r="246" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C246" s="4"/>
-      <c r="G246" s="4"/>
-      <c r="AC246" s="4"/>
-      <c r="AD246" s="4"/>
-      <c r="AE246" s="4"/>
-    </row>
-    <row r="247" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C247" s="4"/>
-      <c r="G247" s="4"/>
-      <c r="AC247" s="4"/>
-      <c r="AD247" s="4"/>
-      <c r="AE247" s="4"/>
-    </row>
-    <row r="248" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C248" s="4"/>
-      <c r="G248" s="4"/>
-      <c r="AC248" s="4"/>
-      <c r="AD248" s="4"/>
-      <c r="AE248" s="4"/>
-    </row>
-    <row r="249" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C249" s="4"/>
-      <c r="G249" s="4"/>
-      <c r="AC249" s="4"/>
-      <c r="AD249" s="4"/>
-      <c r="AE249" s="4"/>
-    </row>
-    <row r="250" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C250" s="4"/>
-      <c r="G250" s="4"/>
-      <c r="AC250" s="4"/>
-      <c r="AD250" s="4"/>
-      <c r="AE250" s="4"/>
-    </row>
-    <row r="251" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C251" s="4"/>
-      <c r="G251" s="4"/>
-      <c r="AC251" s="4"/>
-      <c r="AD251" s="4"/>
-      <c r="AE251" s="4"/>
-    </row>
-    <row r="252" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C252" s="4"/>
-      <c r="G252" s="4"/>
-      <c r="AC252" s="4"/>
-      <c r="AD252" s="4"/>
-      <c r="AE252" s="4"/>
-    </row>
-    <row r="253" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="AC253" s="4"/>
-      <c r="AD253" s="4"/>
-      <c r="AE253" s="4"/>
-    </row>
-    <row r="254" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="AC254" s="4"/>
-      <c r="AD254" s="4"/>
-      <c r="AE254" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>